--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -818,26 +818,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="7"/>
-    <col min="12" max="12" width="59.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="59.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -881,7 +881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -898,21 +898,21 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.77611940298507465</v>
+        <v>0.77941176470588236</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -946,13 +946,13 @@
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.76865671641791045</v>
+        <v>0.75735294117647056</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -982,17 +982,17 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.93283582089552242</v>
+        <v>0.93382352941176472</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1026,13 +1026,13 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.63432835820895528</v>
+        <v>0.625</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1062,17 +1062,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.94776119402985071</v>
+        <v>0.94852941176470584</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1104,17 +1104,17 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.89552238805970152</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1151,10 +1151,10 @@
       <c r="L8" s="29"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="L14" s="32"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="L16" s="29"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="L22" s="32"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1567,8 +1567,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -1985,8 +1985,8 @@
       <c r="L40" s="3"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2193,8 +2193,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2304,18 +2304,36 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="12"/>
+      <c r="C54" s="13">
+        <v>2</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2</v>
+      </c>
+      <c r="H54" s="13">
+        <v>2</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="2"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2332,16 +2350,16 @@
       <c r="L55" s="3"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56" s="11">
         <f t="shared" ref="C56:H56" si="6">SUM(C51:C55)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="6"/>
@@ -2349,7 +2367,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -2369,8 +2387,8 @@
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2387,7 +2405,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2398,7 +2416,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2427,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2438,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2449,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2466,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2485,8 +2503,8 @@
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +2521,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>9</v>
       </c>
@@ -2514,7 +2532,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2543,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2536,7 +2554,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2565,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2582,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2601,8 +2619,8 @@
       <c r="L72" s="3"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
@@ -2619,7 +2637,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2630,7 +2648,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +2659,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2652,7 +2670,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2663,7 +2681,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2698,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2717,8 +2735,8 @@
       <c r="L80" s="3"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>28</v>
       </c>
@@ -2735,7 +2753,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2764,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2775,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -2768,7 +2786,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -2779,7 +2797,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -2796,7 +2814,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -2833,8 +2851,8 @@
       <c r="L88" s="3"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2869,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2880,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2891,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2902,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -2895,7 +2913,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -2912,7 +2930,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -2949,8 +2967,8 @@
       <c r="L96" s="3"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>30</v>
       </c>
@@ -2967,7 +2985,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -2978,7 +2996,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -2989,7 +3007,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3000,7 +3018,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3011,7 +3029,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3046,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3065,8 +3083,8 @@
       <c r="L104" s="3"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
@@ -3083,7 +3101,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3094,7 +3112,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="12"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +3123,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3134,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="12"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3127,7 +3145,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="12"/>
     </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3162,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="12"/>
     </row>
-    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3181,8 +3199,8 @@
       <c r="L112" s="3"/>
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>32</v>
       </c>
@@ -3199,7 +3217,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3228,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3221,7 +3239,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="12"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3250,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="12"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3243,7 +3261,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="12"/>
     </row>
-    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3260,7 +3278,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3297,8 +3315,8 @@
       <c r="L120" s="3"/>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>33</v>
       </c>
@@ -3315,7 +3333,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3326,7 +3344,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3337,7 +3355,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3366,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3359,7 +3377,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3376,7 +3394,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3413,8 +3431,8 @@
       <c r="L128" s="3"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>34</v>
       </c>
@@ -3431,7 +3449,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3442,7 +3460,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3453,7 +3471,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3464,7 +3482,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3475,7 +3493,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3492,7 +3510,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3529,8 +3547,8 @@
       <c r="L136" s="3"/>
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>35</v>
       </c>
@@ -3547,7 +3565,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -3558,7 +3576,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +3587,7 @@
       <c r="L140" s="2"/>
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>11</v>
       </c>
@@ -3580,7 +3598,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="12"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>12</v>
       </c>
@@ -3591,7 +3609,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="12"/>
     </row>
-    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -3608,7 +3626,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -3645,8 +3663,8 @@
       <c r="L144" s="3"/>
       <c r="M144" s="12"/>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>36</v>
       </c>
@@ -3663,7 +3681,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="12"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>9</v>
       </c>
@@ -3674,7 +3692,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +3703,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="12"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3714,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>12</v>
       </c>
@@ -3707,7 +3725,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -3724,7 +3742,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="12"/>
     </row>
-    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -3761,8 +3779,8 @@
       <c r="L152" s="3"/>
       <c r="M152" s="12"/>
     </row>
-    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>37</v>
       </c>
@@ -3779,7 +3797,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="12"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3808,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="12"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +3819,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="12"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -3812,7 +3830,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -3823,7 +3841,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="12"/>
     </row>
-    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -3840,7 +3858,7 @@
       <c r="L159" s="3"/>
       <c r="M159" s="12"/>
     </row>
-    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -3877,8 +3895,8 @@
       <c r="L160" s="3"/>
       <c r="M160" s="12"/>
     </row>
-    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>38</v>
       </c>
@@ -3895,7 +3913,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="12"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -3906,7 +3924,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="12"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -3917,7 +3935,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="12"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -3928,7 +3946,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +3957,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -3956,7 +3974,7 @@
       <c r="L167" s="3"/>
       <c r="M167" s="12"/>
     </row>
-    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -3993,8 +4011,8 @@
       <c r="L168" s="3"/>
       <c r="M168" s="12"/>
     </row>
-    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>54</v>
       </c>
@@ -4011,7 +4029,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="12"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4022,7 +4040,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="12"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4051,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="12"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4062,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="12"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4073,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="12"/>
     </row>
-    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4072,7 +4090,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="12"/>
     </row>
-    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -906,7 +906,7 @@
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.77941176470588236</v>
+        <v>0.75714285714285712</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -942,11 +942,11 @@
       <c r="M3" s="12"/>
       <c r="N3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.75735294117647056</v>
+        <v>0.75</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -982,11 +982,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.93382352941176472</v>
+        <v>0.93571428571428572</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1062,11 +1062,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.94852941176470584</v>
+        <v>0.95</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1104,11 +1104,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.8970588235294118</v>
+        <v>0.9</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2338,12 +2338,24 @@
         <v>13</v>
       </c>
       <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="26">
+        <v>0</v>
+      </c>
+      <c r="D55" s="27">
+        <v>2</v>
+      </c>
+      <c r="E55" s="25">
+        <v>4</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0</v>
+      </c>
+      <c r="G55" s="25">
+        <v>4</v>
+      </c>
+      <c r="H55" s="25">
+        <v>4</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -2355,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="B56" s="11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C56" s="11">
         <f t="shared" ref="C56:H56" si="6">SUM(C51:C55)</f>
@@ -2363,11 +2375,11 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
@@ -2375,11 +2387,11 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Michiel Ziek :  Rief 2 uur te laat</t>
+  </si>
+  <si>
+    <t>Sven 2 lesuren te laat : Rief Thuis Moeder : Michiel Ziek</t>
   </si>
 </sst>
 </file>
@@ -818,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,15 +901,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.75714285714285712</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -946,7 +949,7 @@
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -982,11 +985,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.93571428571428572</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.6071428571428571</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1062,11 +1065,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1104,11 +1107,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.9</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2422,10 +2425,30 @@
         <v>9</v>
       </c>
       <c r="B59" s="12"/>
+      <c r="C59" s="13">
+        <v>4</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
+        <v>2</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>4</v>
+      </c>
+      <c r="H59" s="13">
+        <v>4</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2483,11 +2506,11 @@
         <v>15</v>
       </c>
       <c r="B64" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="7"/>
@@ -2495,7 +2518,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="7"/>
@@ -2503,11 +2526,11 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Sven 2 lesuren te laat : Rief Thuis Moeder : Michiel Ziek</t>
+  </si>
+  <si>
+    <t>Rief Thuis Moeder : Michiel Ziek</t>
   </si>
 </sst>
 </file>
@@ -821,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,15 +904,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.76388888888888884</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -949,7 +952,7 @@
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.72916666666666663</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -985,11 +988,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.92361111111111116</v>
+        <v>0.9517241379310345</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1029,7 +1032,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.59027777777777779</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1065,11 +1068,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95138888888888884</v>
+        <v>0.97931034482758617</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1107,11 +1110,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.90277777777777779</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2456,10 +2459,30 @@
         <v>10</v>
       </c>
       <c r="B60" s="12"/>
+      <c r="C60" s="13">
+        <v>5</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
+        <v>5</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>5</v>
+      </c>
+      <c r="H60" s="13">
+        <v>5</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2506,11 +2529,11 @@
         <v>15</v>
       </c>
       <c r="B64" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="7"/>
@@ -2518,7 +2541,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="7"/>
@@ -2526,11 +2549,11 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Rief Thuis Moeder : Michiel Ziek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rief Thuis Moeder : </t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
   <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,15 +907,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.7931034482758621</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -948,11 +951,11 @@
       <c r="M3" s="12"/>
       <c r="N3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.72413793103448276</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -988,11 +991,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.9517241379310345</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.58620689655172409</v>
+        <v>0.55194805194805197</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1068,11 +1071,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.97931034482758617</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1110,11 +1113,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.93103448275862066</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2490,10 +2493,30 @@
         <v>11</v>
       </c>
       <c r="B61" s="12"/>
+      <c r="C61" s="13">
+        <v>5</v>
+      </c>
+      <c r="D61" s="13">
+        <v>5</v>
+      </c>
+      <c r="E61" s="13">
+        <v>5</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="13">
+        <v>5</v>
+      </c>
+      <c r="H61" s="13">
+        <v>5</v>
+      </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2529,19 +2552,19 @@
         <v>15</v>
       </c>
       <c r="B64" s="11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="7"/>
@@ -2549,11 +2572,11 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rief Thuis Moeder : </t>
+  </si>
+  <si>
+    <t>Rief Thuis Moeder :</t>
   </si>
 </sst>
 </file>
@@ -827,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,15 +910,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.77922077922077926</v>
+        <v>0.78205128205128205</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -951,11 +954,11 @@
       <c r="M3" s="12"/>
       <c r="N3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.7142857142857143</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -991,11 +994,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.9285714285714286</v>
+        <v>0.92948717948717952</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1035,7 +1038,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.55194805194805197</v>
+        <v>0.54487179487179482</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1071,11 +1074,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95454545454545459</v>
+        <v>0.95512820512820518</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1113,11 +1116,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.90909090909090906</v>
+        <v>0.91025641025641024</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2524,10 +2527,30 @@
         <v>12</v>
       </c>
       <c r="B62" s="12"/>
+      <c r="C62" s="13">
+        <v>2</v>
+      </c>
+      <c r="D62" s="13">
+        <v>2</v>
+      </c>
+      <c r="E62" s="13">
+        <v>2</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="13">
+        <v>2</v>
+      </c>
+      <c r="H62" s="13">
+        <v>2</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2552,19 +2575,19 @@
         <v>15</v>
       </c>
       <c r="B64" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="7"/>
@@ -2572,11 +2595,11 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -910,15 +910,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.78205128205128205</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.71794871794871795</v>
+        <v>0.7</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -994,11 +994,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.92948717948717952</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.54487179487179482</v>
+        <v>0.53125</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1074,11 +1074,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95512820512820518</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1116,11 +1116,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.91025641025641024</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2558,12 +2558,24 @@
         <v>13</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="C63" s="25">
+        <v>4</v>
+      </c>
+      <c r="D63" s="26">
+        <v>0</v>
+      </c>
+      <c r="E63" s="25">
+        <v>4</v>
+      </c>
+      <c r="F63" s="26">
+        <v>0</v>
+      </c>
+      <c r="G63" s="25">
+        <v>4</v>
+      </c>
+      <c r="H63" s="25">
+        <v>4</v>
+      </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -2575,11 +2587,11 @@
         <v>15</v>
       </c>
       <c r="B64" s="11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="7"/>
@@ -2587,7 +2599,7 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="7"/>
@@ -2595,11 +2607,11 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Rief Thuis Moeder :</t>
+  </si>
+  <si>
+    <t>Michiel te laat :</t>
   </si>
 </sst>
 </file>
@@ -830,26 +833,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="59.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="7"/>
+    <col min="12" max="12" width="59.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -893,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -910,7 +913,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -918,13 +921,13 @@
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.78749999999999998</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -954,17 +957,17 @@
       <c r="M3" s="12"/>
       <c r="N3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.7</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -994,17 +997,17 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.93125000000000002</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1034,17 +1037,17 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.53125</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1074,17 +1077,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95625000000000004</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1116,17 +1119,17 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.91249999999999998</v>
+        <v>0.91515151515151516</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1163,10 +1166,10 @@
       <c r="L8" s="29"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1246,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1277,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1306,7 @@
       <c r="L14" s="32"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1337,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1371,10 +1374,10 @@
       <c r="L16" s="29"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1423,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1454,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1485,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="L22" s="32"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1579,8 +1582,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1600,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1626,7 +1629,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1657,7 +1660,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1787,8 +1790,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1808,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1839,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1870,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1901,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +1963,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -1997,8 +2000,8 @@
       <c r="L40" s="3"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
@@ -2015,7 +2018,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +2049,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2077,7 +2080,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2106,7 +2109,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2140,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2205,8 +2208,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
@@ -2223,7 +2226,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2254,7 +2257,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2288,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2316,7 +2319,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2348,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2411,8 +2414,8 @@
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2432,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2494,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2525,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2556,7 @@
       </c>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2582,7 +2585,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2619,8 +2622,8 @@
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -2637,29 +2640,55 @@
       <c r="L66" s="1"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="2"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="12"/>
+      <c r="C68" s="14">
+        <v>0</v>
+      </c>
+      <c r="D68" s="24">
+        <v>3</v>
+      </c>
+      <c r="E68" s="13">
+        <v>5</v>
+      </c>
+      <c r="F68" s="13">
+        <v>5</v>
+      </c>
+      <c r="G68" s="13">
+        <v>5</v>
+      </c>
+      <c r="H68" s="13">
+        <v>5</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2670,7 +2699,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +2710,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -2698,12 +2727,12 @@
       <c r="L71" s="3"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B72" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C72" s="11">
         <f t="shared" ref="C72:H72" si="8">SUM(C67:C71)</f>
@@ -2711,23 +2740,23 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G72" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -2735,8 +2764,8 @@
       <c r="L72" s="3"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
@@ -2753,7 +2782,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2764,7 +2793,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2775,7 +2804,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2786,7 +2815,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2797,7 +2826,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2814,7 +2843,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2851,8 +2880,8 @@
       <c r="L80" s="3"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>28</v>
       </c>
@@ -2869,7 +2898,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2880,7 +2909,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -2891,7 +2920,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -2902,7 +2931,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -2913,7 +2942,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2959,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -2967,8 +2996,8 @@
       <c r="L88" s="3"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -2985,7 +3014,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -2996,7 +3025,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3036,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3047,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3029,7 +3058,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3046,7 +3075,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3083,8 +3112,8 @@
       <c r="L96" s="3"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>30</v>
       </c>
@@ -3101,7 +3130,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3141,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3123,7 +3152,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3163,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3174,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3191,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3199,8 +3228,8 @@
       <c r="L104" s="3"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
@@ -3217,7 +3246,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3228,7 +3257,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="12"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3239,7 +3268,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3250,7 +3279,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="12"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3290,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="12"/>
     </row>
-    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3278,7 +3307,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="12"/>
     </row>
-    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3315,8 +3344,8 @@
       <c r="L112" s="3"/>
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>32</v>
       </c>
@@ -3333,7 +3362,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3373,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3355,7 +3384,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="12"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3366,7 +3395,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="12"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3377,7 +3406,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="12"/>
     </row>
-    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +3423,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3431,8 +3460,8 @@
       <c r="L120" s="3"/>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3478,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3460,7 +3489,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3471,7 +3500,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3511,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3493,7 +3522,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3510,7 +3539,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3547,8 +3576,8 @@
       <c r="L128" s="3"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>34</v>
       </c>
@@ -3565,7 +3594,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3576,7 +3605,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3587,7 +3616,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3598,7 +3627,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3609,7 +3638,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3626,7 +3655,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3663,8 +3692,8 @@
       <c r="L136" s="3"/>
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>35</v>
       </c>
@@ -3681,7 +3710,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -3692,7 +3721,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>10</v>
       </c>
@@ -3703,7 +3732,7 @@
       <c r="L140" s="2"/>
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>11</v>
       </c>
@@ -3714,7 +3743,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="12"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +3754,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="12"/>
     </row>
-    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -3742,7 +3771,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -3779,8 +3808,8 @@
       <c r="L144" s="3"/>
       <c r="M144" s="12"/>
     </row>
-    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>36</v>
       </c>
@@ -3797,7 +3826,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="12"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>9</v>
       </c>
@@ -3808,7 +3837,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +3848,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="12"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3859,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>12</v>
       </c>
@@ -3841,7 +3870,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -3858,7 +3887,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="12"/>
     </row>
-    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -3895,8 +3924,8 @@
       <c r="L152" s="3"/>
       <c r="M152" s="12"/>
     </row>
-    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>37</v>
       </c>
@@ -3913,7 +3942,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="12"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -3924,7 +3953,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="12"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -3935,7 +3964,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="12"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -3946,7 +3975,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +3986,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="12"/>
     </row>
-    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -3974,7 +4003,7 @@
       <c r="L159" s="3"/>
       <c r="M159" s="12"/>
     </row>
-    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4011,8 +4040,8 @@
       <c r="L160" s="3"/>
       <c r="M160" s="12"/>
     </row>
-    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4058,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="12"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4040,7 +4069,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="12"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4051,7 +4080,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="12"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4091,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4073,7 +4102,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4090,7 +4119,7 @@
       <c r="L167" s="3"/>
       <c r="M167" s="12"/>
     </row>
-    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4127,8 +4156,8 @@
       <c r="L168" s="3"/>
       <c r="M168" s="12"/>
     </row>
-    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>54</v>
       </c>
@@ -4145,7 +4174,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="12"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4185,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="12"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4167,7 +4196,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="12"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4178,7 +4207,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="12"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4189,7 +4218,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="12"/>
     </row>
-    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4235,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="12"/>
     </row>
-    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -236,7 +236,10 @@
     <t>Rief Thuis Moeder :</t>
   </si>
   <si>
-    <t>Michiel te laat :</t>
+    <t>Michiel te laat</t>
+  </si>
+  <si>
+    <t>Michiel te laat : Sven te laat</t>
   </si>
 </sst>
 </file>
@@ -833,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,15 +916,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.76363636363636367</v>
+        <v>0.77058823529411768</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -957,11 +960,11 @@
       <c r="M3" s="12"/>
       <c r="N3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.69696969696969702</v>
+        <v>0.69411764705882351</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -997,11 +1000,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.93333333333333335</v>
+        <v>0.92352941176470593</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1037,11 +1040,11 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.54545454545454541</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1077,11 +1080,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95757575757575752</v>
+        <v>0.95882352941176474</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1119,11 +1122,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.91515151515151516</v>
+        <v>0.91764705882352937</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2662,30 +2665,16 @@
         <v>10</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="C68" s="14">
-        <v>0</v>
-      </c>
-      <c r="D68" s="24">
-        <v>3</v>
-      </c>
-      <c r="E68" s="13">
-        <v>5</v>
-      </c>
-      <c r="F68" s="13">
-        <v>5</v>
-      </c>
-      <c r="G68" s="13">
-        <v>5</v>
-      </c>
-      <c r="H68" s="13">
-        <v>5</v>
-      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="L68" s="2"/>
       <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -2693,6 +2682,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="12"/>
+      <c r="F69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
@@ -2732,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C72" s="11">
         <f t="shared" ref="C72:H72" si="8">SUM(C67:C71)</f>
@@ -2740,23 +2730,23 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G72" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H72" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -2798,10 +2788,30 @@
         <v>10</v>
       </c>
       <c r="B76" s="12"/>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="24">
+        <v>3</v>
+      </c>
+      <c r="E76" s="13">
+        <v>5</v>
+      </c>
+      <c r="F76" s="13">
+        <v>5</v>
+      </c>
+      <c r="G76" s="13">
+        <v>5</v>
+      </c>
+      <c r="H76" s="13">
+        <v>5</v>
+      </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2809,10 +2819,30 @@
         <v>11</v>
       </c>
       <c r="B77" s="12"/>
+      <c r="C77" s="13">
+        <v>5</v>
+      </c>
+      <c r="D77" s="24">
+        <v>3</v>
+      </c>
+      <c r="E77" s="24">
+        <v>3</v>
+      </c>
+      <c r="F77" s="13">
+        <v>5</v>
+      </c>
+      <c r="G77" s="13">
+        <v>5</v>
+      </c>
+      <c r="H77" s="13">
+        <v>5</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -2848,31 +2878,31 @@
         <v>15</v>
       </c>
       <c r="B80" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C80" s="11">
         <f t="shared" ref="C80:H80" si="9">SUM(C75:C79)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H80" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t>Michiel te laat : Sven te laat</t>
+  </si>
+  <si>
+    <t>Michiel Ziek : Fahrettin ziek? : Roos te laat</t>
   </si>
 </sst>
 </file>
@@ -836,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,15 +920,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.77058823529411768</v>
+        <v>0.75690607734806625</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -960,11 +964,11 @@
       <c r="M3" s="12"/>
       <c r="N3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.69411764705882351</v>
+        <v>0.68508287292817682</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -1000,11 +1004,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.92352941176470593</v>
+        <v>0.92817679558011046</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1040,11 +1044,11 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.55882352941176472</v>
+        <v>0.58563535911602205</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1080,11 +1084,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95882352941176474</v>
+        <v>0.95580110497237569</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1122,11 +1126,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.91764705882352937</v>
+        <v>0.92265193370165743</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -1764,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
+        <f t="shared" ref="C32:H32" si="3">SUM(C27:C31)</f>
         <v>16</v>
       </c>
       <c r="D32" s="11">
@@ -1784,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="H32" s="11">
-        <f>SUM(H27:H31)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I32" s="11"/>
@@ -2850,6 +2854,24 @@
         <v>12</v>
       </c>
       <c r="B78" s="12"/>
+      <c r="C78" s="13">
+        <v>2</v>
+      </c>
+      <c r="D78" s="13">
+        <v>2</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2</v>
+      </c>
+      <c r="F78" s="13">
+        <v>2</v>
+      </c>
+      <c r="G78" s="13">
+        <v>2</v>
+      </c>
+      <c r="H78" s="13">
+        <v>2</v>
+      </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
@@ -2861,12 +2883,24 @@
         <v>13</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="C79" s="25">
+        <v>4</v>
+      </c>
+      <c r="D79" s="25">
+        <v>4</v>
+      </c>
+      <c r="E79" s="25">
+        <v>4</v>
+      </c>
+      <c r="F79" s="25">
+        <v>4</v>
+      </c>
+      <c r="G79" s="25">
+        <v>4</v>
+      </c>
+      <c r="H79" s="25">
+        <v>4</v>
+      </c>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
@@ -2878,31 +2912,31 @@
         <v>15</v>
       </c>
       <c r="B80" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11">
         <f t="shared" ref="C80:H80" si="9">SUM(C75:C79)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D80" s="11">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H80" s="11">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -2933,10 +2967,30 @@
         <v>9</v>
       </c>
       <c r="B83" s="12"/>
+      <c r="C83" s="14">
+        <v>0</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="13">
+        <v>5</v>
+      </c>
+      <c r="F83" s="13">
+        <v>5</v>
+      </c>
+      <c r="G83" s="24">
+        <v>4</v>
+      </c>
+      <c r="H83" s="13">
+        <v>5</v>
+      </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -2994,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="B88" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C88" s="11">
         <f t="shared" ref="C88:H88" si="10">SUM(C83:C87)</f>
@@ -3006,19 +3060,19 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G88" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -840,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,11 +1043,11 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.58563535911602205</v>
+        <v>0.574585635359116</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -2863,8 +2862,8 @@
       <c r="E78" s="13">
         <v>2</v>
       </c>
-      <c r="F78" s="13">
-        <v>2</v>
+      <c r="F78" s="14">
+        <v>0</v>
       </c>
       <c r="G78" s="13">
         <v>2</v>
@@ -2928,7 +2927,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="9"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anthony\Desktop\Nieuwe map\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,15 +919,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.75690607734806625</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.68508287292817682</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -1003,11 +1003,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.92817679558011046</v>
+        <v>0.93010752688172038</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.574585635359116</v>
+        <v>0.55913978494623651</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1083,11 +1083,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95580110497237569</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1125,11 +1125,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.92265193370165743</v>
+        <v>0.92473118279569888</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -2997,6 +2997,24 @@
         <v>10</v>
       </c>
       <c r="B84" s="12"/>
+      <c r="C84" s="13">
+        <v>5</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="13">
+        <v>5</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13">
+        <v>5</v>
+      </c>
+      <c r="H84" s="13">
+        <v>5</v>
+      </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
@@ -3047,11 +3065,11 @@
         <v>15</v>
       </c>
       <c r="B88" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" s="11">
         <f t="shared" ref="C88:H88" si="10">SUM(C83:C87)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88" s="11">
         <f t="shared" si="10"/>
@@ -3059,7 +3077,7 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="10"/>
@@ -3067,11 +3085,11 @@
       </c>
       <c r="G88" s="11">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H88" s="11">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anthony\Desktop\Nieuwe map\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Michiel Ziek : Fahrettin ziek? : Roos te laat</t>
+  </si>
+  <si>
+    <t>Michiel Ziek : Fahrettin te laat : Sven te laat</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,15 +922,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.76344086021505375</v>
+        <v>0.76439790575916233</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -967,7 +970,7 @@
       </c>
       <c r="O3" s="23">
         <f>N3/M2</f>
-        <v>0.66666666666666663</v>
+        <v>0.64921465968586389</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1</v>
@@ -1003,11 +1006,11 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.93010752688172038</v>
+        <v>0.92670157068062831</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
@@ -1043,11 +1046,11 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.55913978494623651</v>
+        <v>0.5706806282722513</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -1083,11 +1086,11 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.956989247311828</v>
+        <v>0.95811518324607325</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
@@ -1125,11 +1128,11 @@
       <c r="M7" s="12"/>
       <c r="N7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O7" s="23">
         <f>N7/M2</f>
-        <v>0.92473118279569888</v>
+        <v>0.92670157068062831</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>5</v>
@@ -3018,7 +3021,9 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3026,10 +3031,30 @@
         <v>11</v>
       </c>
       <c r="B85" s="12"/>
+      <c r="C85" s="24">
+        <v>4</v>
+      </c>
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="24">
+        <v>4</v>
+      </c>
+      <c r="F85" s="13">
+        <v>5</v>
+      </c>
+      <c r="G85" s="13">
+        <v>5</v>
+      </c>
+      <c r="H85" s="13">
+        <v>5</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3065,11 +3090,11 @@
         <v>15</v>
       </c>
       <c r="B88" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C88" s="11">
         <f t="shared" ref="C88:H88" si="10">SUM(C83:C87)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D88" s="11">
         <f t="shared" si="10"/>
@@ -3077,19 +3102,19 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G88" s="11">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H88" s="11">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,11 +926,11 @@
       </c>
       <c r="N2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O2" s="23">
         <f>N2/M2</f>
-        <v>0.76439790575916233</v>
+        <v>0.76963350785340312</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>0</v>
@@ -1046,11 +1046,11 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.5706806282722513</v>
+        <v>0.55497382198952883</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -3001,22 +3001,22 @@
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D84" s="14">
         <v>0</v>
       </c>
       <c r="E84" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84" s="14">
         <v>0</v>
       </c>
       <c r="G84" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H84" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -3032,22 +3032,22 @@
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" s="14">
         <v>0</v>
       </c>
       <c r="E85" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G85" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C88" s="11">
         <f t="shared" ref="C88:H88" si="10">SUM(C83:C87)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" s="11">
         <f t="shared" si="10"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88" s="11">
         <f t="shared" si="10"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>Rief Ziek : Roos 2 lesuren eerder naar huis</t>
   </si>
   <si>
-    <t>Week 4:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rief Ziek </t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Michiel Ziek : Fahrettin te laat : Sven te laat</t>
+  </si>
+  <si>
+    <t>Week 53:</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -557,6 +557,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -842,26 +857,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="7"/>
-    <col min="12" max="12" width="59.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="59.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -905,7 +920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -936,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -976,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1175,10 +1190,10 @@
       <c r="L8" s="29"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1210,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1241,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1270,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1301,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1330,7 @@
       <c r="L14" s="32"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1361,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1383,10 +1398,10 @@
       <c r="L16" s="29"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1418,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1447,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1478,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +1509,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1538,7 @@
       <c r="L22" s="32"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1569,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1591,8 +1606,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1624,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1653,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1684,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1696,11 +1711,11 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1727,11 +1742,11 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1762,7 +1777,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1799,8 +1814,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1817,7 +1832,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1848,7 +1863,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1894,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1925,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1937,11 +1952,11 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1968,11 +1983,11 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2009,8 +2024,8 @@
       <c r="L40" s="3"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2042,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2054,11 +2069,11 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2085,11 +2100,11 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2133,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2145,11 +2160,11 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2176,11 +2191,11 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2217,8 +2232,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
@@ -2235,7 +2250,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2262,11 +2277,11 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2293,11 +2308,11 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2324,11 +2339,11 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2357,7 +2372,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2401,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2423,8 +2438,8 @@
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2441,7 +2456,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2468,11 +2483,11 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2499,11 +2514,11 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2530,11 +2545,11 @@
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2561,11 +2576,11 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2594,7 +2609,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2631,99 +2646,110 @@
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="1"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="2"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="38"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="2"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="38"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="2"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="38"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="2"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="38"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="3"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="41"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2760,8 +2786,8 @@
       <c r="L72" s="3"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2804,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2815,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2816,11 +2842,11 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2847,11 +2873,11 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2880,7 +2906,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2935,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2972,8 @@
       <c r="L80" s="3"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>28</v>
       </c>
@@ -2964,7 +2990,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2991,11 +3017,11 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3052,7 @@
       </c>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3053,11 +3079,11 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3094,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3085,7 +3111,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3122,8 +3148,8 @@
       <c r="L88" s="3"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -3140,7 +3166,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3151,7 +3177,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3162,7 +3188,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3173,7 +3199,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3184,7 +3210,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3201,7 +3227,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3238,8 +3264,8 @@
       <c r="L96" s="3"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>30</v>
       </c>
@@ -3256,7 +3282,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3267,7 +3293,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3278,7 +3304,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3289,7 +3315,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3300,7 +3326,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3317,7 +3343,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3354,8 +3380,8 @@
       <c r="L104" s="3"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
@@ -3372,7 +3398,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3409,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="12"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3394,7 +3420,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3405,7 +3431,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="12"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3442,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="12"/>
     </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3433,7 +3459,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="12"/>
     </row>
-    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3470,8 +3496,8 @@
       <c r="L112" s="3"/>
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>32</v>
       </c>
@@ -3488,7 +3514,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3499,7 +3525,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3510,7 +3536,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="12"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3521,7 +3547,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="12"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3532,7 +3558,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="12"/>
     </row>
-    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3549,7 +3575,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3586,8 +3612,8 @@
       <c r="L120" s="3"/>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>33</v>
       </c>
@@ -3604,7 +3630,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3615,7 +3641,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3626,7 +3652,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3637,7 +3663,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3648,7 +3674,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3665,7 +3691,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3702,8 +3728,8 @@
       <c r="L128" s="3"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>34</v>
       </c>
@@ -3720,7 +3746,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3757,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3742,7 +3768,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3753,7 +3779,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3764,7 +3790,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3781,7 +3807,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3818,86 +3844,110 @@
       <c r="L136" s="3"/>
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="1"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
+      <c r="L138" s="35"/>
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="2"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="37"/>
+      <c r="K139" s="37"/>
+      <c r="L139" s="38"/>
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="2"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="37"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="38"/>
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="2"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="37"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="38"/>
       <c r="M141" s="12"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="2"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="38"/>
       <c r="M142" s="12"/>
     </row>
-    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="3"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="40"/>
+      <c r="L143" s="41"/>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -3934,86 +3984,110 @@
       <c r="L144" s="3"/>
       <c r="M144" s="12"/>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="1"/>
+    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="34"/>
+      <c r="L146" s="35"/>
       <c r="M146" s="12"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="2"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="37"/>
+      <c r="L147" s="38"/>
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="2"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="37"/>
+      <c r="L148" s="38"/>
       <c r="M148" s="12"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="2"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
+      <c r="L149" s="38"/>
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="2"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="37"/>
+      <c r="L150" s="38"/>
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="3"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="40"/>
+      <c r="L151" s="41"/>
       <c r="M151" s="12"/>
     </row>
-    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4050,10 +4124,10 @@
       <c r="L152" s="3"/>
       <c r="M152" s="12"/>
     </row>
-    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4068,7 +4142,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="12"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4079,7 +4153,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="12"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4090,7 +4164,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="12"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4101,7 +4175,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4112,7 +4186,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="12"/>
     </row>
-    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4129,7 +4203,7 @@
       <c r="L159" s="3"/>
       <c r="M159" s="12"/>
     </row>
-    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4166,10 +4240,10 @@
       <c r="L160" s="3"/>
       <c r="M160" s="12"/>
     </row>
-    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -4184,7 +4258,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="12"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4195,7 +4269,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="12"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4206,7 +4280,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="12"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4217,7 +4291,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4228,7 +4302,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4245,7 +4319,7 @@
       <c r="L167" s="3"/>
       <c r="M167" s="12"/>
     </row>
-    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4282,10 +4356,10 @@
       <c r="L168" s="3"/>
       <c r="M168" s="12"/>
     </row>
-    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -4300,7 +4374,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="12"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4311,7 +4385,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="12"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4322,7 +4396,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="12"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4333,7 +4407,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="12"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4344,7 +4418,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="12"/>
     </row>
-    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4361,7 +4435,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="12"/>
     </row>
-    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Week 53:</t>
+  </si>
+  <si>
+    <t>Fahrettin ziek : Michiel Ziek : Anthony Rijexamen</t>
   </si>
 </sst>
 </file>
@@ -857,26 +860,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="59.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="7"/>
+    <col min="12" max="12" width="59.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -920,7 +923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -951,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -991,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1021,17 +1024,17 @@
       <c r="M4" s="12"/>
       <c r="N4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O4" s="23">
         <f>N4/M2</f>
-        <v>0.92670157068062831</v>
+        <v>0.93717277486910999</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1061,17 +1064,17 @@
       <c r="M5" s="12"/>
       <c r="N5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O5" s="23">
         <f>N5/M2</f>
-        <v>0.55497382198952883</v>
+        <v>0.56544502617801051</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1101,17 +1104,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O6" s="23">
         <f>N6/M2</f>
-        <v>0.95811518324607325</v>
+        <v>0.96858638743455494</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1190,10 +1193,10 @@
       <c r="L8" s="29"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1213,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1244,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1273,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1304,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1333,7 @@
       <c r="L14" s="32"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1364,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1398,10 +1401,10 @@
       <c r="L16" s="29"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1421,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1450,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1478,7 +1481,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1512,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="L22" s="32"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1569,7 +1572,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1606,8 +1609,8 @@
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1627,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1656,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1687,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1718,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1814,8 +1817,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1832,7 +1835,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +1866,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1897,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +1928,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1959,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +1990,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2024,8 +2027,8 @@
       <c r="L40" s="3"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
@@ -2042,7 +2045,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2107,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2136,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2164,7 +2167,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2195,7 +2198,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2232,8 +2235,8 @@
       <c r="L48" s="3"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
@@ -2250,7 +2253,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2281,7 +2284,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2401,7 +2404,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2438,8 +2441,8 @@
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2456,7 +2459,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2490,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2521,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2552,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2609,7 +2612,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2646,8 +2649,8 @@
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>26</v>
       </c>
@@ -2664,7 +2667,7 @@
       <c r="L66" s="35"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="36" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="L67" s="38"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="36" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="L68" s="38"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
         <v>11</v>
       </c>
@@ -2715,7 +2718,7 @@
       <c r="L69" s="38"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="L70" s="38"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2752,7 @@
       <c r="L71" s="41"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2786,8 +2789,8 @@
       <c r="L72" s="3"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
@@ -2804,7 +2807,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2818,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2846,7 +2849,7 @@
       </c>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2877,7 +2880,7 @@
       </c>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2909,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2972,8 +2975,8 @@
       <c r="L80" s="3"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>28</v>
       </c>
@@ -2990,7 +2993,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3021,7 +3024,7 @@
       </c>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3055,7 @@
       </c>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3083,18 +3086,38 @@
       </c>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="12"/>
+      <c r="C86" s="14">
+        <v>0</v>
+      </c>
+      <c r="D86" s="14">
+        <v>0</v>
+      </c>
+      <c r="E86" s="13">
+        <v>2</v>
+      </c>
+      <c r="F86" s="13">
+        <v>2</v>
+      </c>
+      <c r="G86" s="13">
+        <v>2</v>
+      </c>
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="2"/>
+      <c r="L86" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3111,7 +3134,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3128,15 +3151,15 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G88" s="11">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H88" s="11">
         <f t="shared" si="10"/>
@@ -3148,8 +3171,8 @@
       <c r="L88" s="3"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -3166,7 +3189,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3177,7 +3200,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3188,7 +3211,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3199,7 +3222,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3233,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3250,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3264,8 +3287,8 @@
       <c r="L96" s="3"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>30</v>
       </c>
@@ -3282,7 +3305,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3316,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3304,7 +3327,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3338,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3349,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3343,7 +3366,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3380,8 +3403,8 @@
       <c r="L104" s="3"/>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
@@ -3398,7 +3421,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3409,7 +3432,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="12"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3420,7 +3443,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3431,7 +3454,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="12"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3442,7 +3465,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="12"/>
     </row>
-    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3482,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="12"/>
     </row>
-    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3496,8 +3519,8 @@
       <c r="L112" s="3"/>
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>32</v>
       </c>
@@ -3514,7 +3537,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3548,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3559,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="12"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3570,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="12"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3558,7 +3581,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="12"/>
     </row>
-    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3575,7 +3598,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3612,8 +3635,8 @@
       <c r="L120" s="3"/>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>33</v>
       </c>
@@ -3630,7 +3653,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +3664,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3675,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3686,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3697,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3691,7 +3714,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3728,8 +3751,8 @@
       <c r="L128" s="3"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>34</v>
       </c>
@@ -3746,7 +3769,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3780,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3768,7 +3791,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3802,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3790,7 +3813,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3807,7 +3830,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3844,8 +3867,8 @@
       <c r="L136" s="3"/>
       <c r="M136" s="12"/>
     </row>
-    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
         <v>35</v>
       </c>
@@ -3862,7 +3885,7 @@
       <c r="L138" s="35"/>
       <c r="M138" s="12"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="36" t="s">
         <v>9</v>
       </c>
@@ -3879,7 +3902,7 @@
       <c r="L139" s="38"/>
       <c r="M139" s="12"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="36" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3919,7 @@
       <c r="L140" s="38"/>
       <c r="M140" s="12"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="36" t="s">
         <v>11</v>
       </c>
@@ -3913,7 +3936,7 @@
       <c r="L141" s="38"/>
       <c r="M141" s="12"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="36" t="s">
         <v>12</v>
       </c>
@@ -3930,7 +3953,7 @@
       <c r="L142" s="38"/>
       <c r="M142" s="12"/>
     </row>
-    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
         <v>13</v>
       </c>
@@ -3947,7 +3970,7 @@
       <c r="L143" s="41"/>
       <c r="M143" s="12"/>
     </row>
-    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -3984,8 +4007,8 @@
       <c r="L144" s="3"/>
       <c r="M144" s="12"/>
     </row>
-    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
         <v>73</v>
       </c>
@@ -4002,7 +4025,7 @@
       <c r="L146" s="35"/>
       <c r="M146" s="12"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="36" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4042,7 @@
       <c r="L147" s="38"/>
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="36" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4059,7 @@
       <c r="L148" s="38"/>
       <c r="M148" s="12"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="36" t="s">
         <v>11</v>
       </c>
@@ -4053,7 +4076,7 @@
       <c r="L149" s="38"/>
       <c r="M149" s="12"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="36" t="s">
         <v>12</v>
       </c>
@@ -4070,7 +4093,7 @@
       <c r="L150" s="38"/>
       <c r="M150" s="12"/>
     </row>
-    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="39" t="s">
         <v>13</v>
       </c>
@@ -4087,7 +4110,7 @@
       <c r="L151" s="41"/>
       <c r="M151" s="12"/>
     </row>
-    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4124,8 +4147,8 @@
       <c r="L152" s="3"/>
       <c r="M152" s="12"/>
     </row>
-    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>36</v>
       </c>
@@ -4142,7 +4165,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="12"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4153,7 +4176,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="12"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4164,7 +4187,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="12"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4198,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4209,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="12"/>
     </row>
-    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4203,7 +4226,7 @@
       <c r="L159" s="3"/>
       <c r="M159" s="12"/>
     </row>
-    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4240,8 +4263,8 @@
       <c r="L160" s="3"/>
       <c r="M160" s="12"/>
     </row>
-    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>37</v>
       </c>
@@ -4258,7 +4281,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="12"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4269,7 +4292,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="12"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4280,7 +4303,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="12"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4291,7 +4314,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4302,7 +4325,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4319,7 +4342,7 @@
       <c r="L167" s="3"/>
       <c r="M167" s="12"/>
     </row>
-    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4356,8 +4379,8 @@
       <c r="L168" s="3"/>
       <c r="M168" s="12"/>
     </row>
-    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>38</v>
       </c>
@@ -4374,7 +4397,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="12"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4385,7 +4408,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="12"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4396,7 +4419,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="12"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4407,7 +4430,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="12"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4418,7 +4441,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="12"/>
     </row>
-    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4435,7 +4458,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="12"/>
     </row>
-    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="74">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -242,10 +242,10 @@
     <t>Michiel Ziek : Rief Ziek :</t>
   </si>
   <si>
-    <t>Michiel Ziek : Fahrettin Te Laat :: Sven Te Laat :</t>
-  </si>
-  <si>
     <t>Fahrettin Ziek : Michiel Ziek : Anthony Rijexamen :</t>
+  </si>
+  <si>
+    <t>Michiel Ziek : Fahrettin Te Laat : Sven Te Laat :</t>
   </si>
 </sst>
 </file>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -981,17 +981,17 @@
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.74619289340101524</v>
+        <v>0.76649746192893398</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1061,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.90862944162436543</v>
+        <v>0.92893401015228427</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1101,17 +1101,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.54822335025380708</v>
+        <v>0.56852791878172593</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1139,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93908629441624369</v>
+        <v>0.95431472081218272</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1179,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89847715736040612</v>
+        <v>0.91878172588832485</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3051,11 +3051,11 @@
         <v>7</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3080,26 +3080,40 @@
       </c>
       <c r="I86" s="38"/>
       <c r="J86" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="57"/>
+      <c r="C87" s="22">
+        <v>4</v>
+      </c>
+      <c r="D87" s="23">
+        <v>0</v>
+      </c>
+      <c r="E87" s="22">
+        <v>4</v>
+      </c>
+      <c r="F87" s="22">
+        <v>4</v>
+      </c>
+      <c r="G87" s="24">
+        <v>3</v>
+      </c>
+      <c r="H87" s="22">
+        <v>4</v>
+      </c>
       <c r="I87" s="39"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3108,7 +3122,7 @@
       </c>
       <c r="C88" s="11">
         <f t="shared" ref="C88:H88" si="10">SUM(C83:C87)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D88" s="11">
         <f t="shared" si="10"/>
@@ -3116,26 +3130,26 @@
       </c>
       <c r="E88" s="11">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G88" s="11">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H88" s="11">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3150,7 +3164,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3167,7 +3181,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +3198,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3201,7 +3215,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3216,7 +3230,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3231,7 +3245,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3266,8 +3280,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3282,7 +3296,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3313,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3316,7 +3330,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3347,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3348,7 +3362,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3363,7 +3377,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3398,8 +3412,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3414,7 +3428,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3431,7 +3445,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3462,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3465,7 +3479,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3480,7 +3494,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3495,7 +3509,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3530,8 +3544,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3546,7 +3560,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3563,7 +3577,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3580,7 +3594,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3597,7 +3611,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3626,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3627,7 +3641,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3662,8 +3676,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3678,7 +3692,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +3709,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3726,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3729,7 +3743,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3744,7 +3758,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3759,7 +3773,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3794,8 +3808,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3810,7 +3824,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3827,7 +3841,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3844,7 +3858,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3861,7 +3875,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3876,7 +3890,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3891,7 +3905,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3926,8 +3940,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3942,7 +3956,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -3957,7 +3971,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3972,7 +3986,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3987,7 +4001,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +4016,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4017,7 +4031,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4052,8 +4066,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4068,7 +4082,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4083,7 +4097,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4112,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4113,7 +4127,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4142,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4143,7 +4157,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4178,8 +4192,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4194,7 +4208,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4211,7 +4225,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4228,7 +4242,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4245,7 +4259,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4260,7 +4274,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4275,7 +4289,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4310,8 +4324,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4326,7 +4340,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4343,7 +4357,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4374,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4377,7 +4391,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4392,7 +4406,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4407,7 +4421,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4442,8 +4456,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4458,7 +4472,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4475,7 +4489,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4492,7 +4506,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4509,7 +4523,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4524,7 +4538,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4539,7 +4553,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,12 +3084,12 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="22">
+      <c r="C87" s="43">
         <v>4</v>
       </c>
       <c r="D87" s="23">
@@ -3104,7 +3104,7 @@
       <c r="G87" s="24">
         <v>3</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="44">
         <v>4</v>
       </c>
       <c r="I87" s="39"/>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3280,8 +3280,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3412,8 +3412,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3544,8 +3544,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3676,8 +3676,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3808,8 +3808,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3940,8 +3940,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4066,8 +4066,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4192,8 +4192,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4324,8 +4324,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4340,7 +4340,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4456,8 +4456,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="75">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Michiel Ziek : Fahrettin Te Laat : Sven Te Laat :</t>
+  </si>
+  <si>
+    <t>Michiel niet aanwezig : Fahrettin niet aanwezig :</t>
   </si>
 </sst>
 </file>
@@ -911,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +980,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,7 +988,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.76649746192893398</v>
+        <v>0.75124378109452739</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1025,7 +1028,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.62944162436548223</v>
+        <v>0.61691542288557211</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1061,11 +1064,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92893401015228427</v>
+        <v>0.93034825870646765</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1101,11 +1104,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56852791878172593</v>
+        <v>0.57711442786069655</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1139,11 +1142,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95431472081218272</v>
+        <v>0.95522388059701491</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1179,11 +1182,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91878172588832485</v>
+        <v>0.92039800995024879</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3169,16 +3172,30 @@
         <v>9</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="56"/>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="9">
+        <v>4</v>
+      </c>
+      <c r="F91" s="9">
+        <v>4</v>
+      </c>
+      <c r="G91" s="9">
+        <v>4</v>
+      </c>
+      <c r="H91" s="9">
+        <v>4</v>
+      </c>
       <c r="I91" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -3250,7 +3267,7 @@
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
@@ -3262,19 +3279,19 @@
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="74">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Michiel Ziek : Fahrettin Te Laat : Sven Te Laat :</t>
-  </si>
-  <si>
-    <t>Michiel niet aanwezig : Fahrettin niet aanwezig :</t>
   </si>
 </sst>
 </file>
@@ -914,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -988,7 +985,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.75124378109452739</v>
+        <v>0.76649746192893398</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1028,7 +1025,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.61691542288557211</v>
+        <v>0.62944162436548223</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1064,11 +1061,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93034825870646765</v>
+        <v>0.92893401015228427</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1104,11 +1101,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57711442786069655</v>
+        <v>0.56852791878172593</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1142,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95522388059701491</v>
+        <v>0.95431472081218272</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1182,11 +1179,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92039800995024879</v>
+        <v>0.91878172588832485</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3172,30 +3169,16 @@
         <v>9</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="10">
-        <v>0</v>
-      </c>
-      <c r="D91" s="10">
-        <v>0</v>
-      </c>
-      <c r="E91" s="9">
-        <v>4</v>
-      </c>
-      <c r="F91" s="9">
-        <v>4</v>
-      </c>
-      <c r="G91" s="9">
-        <v>4</v>
-      </c>
-      <c r="H91" s="9">
-        <v>4</v>
-      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="56"/>
       <c r="I91" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -3267,7 +3250,7 @@
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
@@ -3279,19 +3262,19 @@
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,13 +985,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.76649746192893398</v>
+        <v>0.75124378109452739</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1025,13 +1025,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.62944162436548223</v>
+        <v>0.61691542288557211</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1061,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92893401015228427</v>
+        <v>0.93034825870646765</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1101,17 +1101,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56852791878172593</v>
+        <v>0.57711442786069655</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1139,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95431472081218272</v>
+        <v>0.95522388059701491</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1179,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91878172588832485</v>
+        <v>0.92039800995024879</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,24 +3164,36 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="56"/>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="9">
+        <v>4</v>
+      </c>
+      <c r="F91" s="9">
+        <v>4</v>
+      </c>
+      <c r="G91" s="9">
+        <v>4</v>
+      </c>
+      <c r="H91" s="9">
+        <v>4</v>
+      </c>
       <c r="I91" s="55" t="s">
         <v>6</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3210,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3227,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +3242,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3245,12 +3257,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
@@ -3262,26 +3274,26 @@
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3296,7 +3308,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3325,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3330,7 +3342,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3347,7 +3359,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3362,7 +3374,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3389,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3412,8 +3424,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3428,7 +3440,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3445,7 +3457,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3474,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3479,7 +3491,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3494,7 +3506,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3509,7 +3521,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3544,8 +3556,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3560,7 +3572,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3577,7 +3589,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3594,7 +3606,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3623,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3638,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3641,7 +3653,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3676,8 +3688,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3692,7 +3704,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3721,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3726,7 +3738,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3743,7 +3755,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3770,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3773,7 +3785,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3808,8 +3820,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3836,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3841,7 +3853,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +3870,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3875,7 +3887,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +3902,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3905,7 +3917,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3940,8 +3952,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3956,7 +3968,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -3971,7 +3983,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3986,7 +3998,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4001,7 +4013,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4016,7 +4028,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4043,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4066,8 +4078,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4082,7 +4094,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4097,7 +4109,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4112,7 +4124,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4127,7 +4139,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4154,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4157,7 +4169,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4192,8 +4204,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4208,7 +4220,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4225,7 +4237,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4242,7 +4254,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4259,7 +4271,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4286,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4301,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4324,8 +4336,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4340,7 +4352,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4369,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4386,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4403,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4406,7 +4418,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4433,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4456,8 +4468,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4472,7 +4484,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4489,7 +4501,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4506,7 +4518,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4535,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4550,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4553,7 +4565,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,15 +977,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.75124378109452739</v>
+        <v>0.76076555023923442</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.61691542288557211</v>
+        <v>0.59330143540669855</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1061,11 +1061,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93034825870646765</v>
+        <v>0.93301435406698563</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1101,11 +1101,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57711442786069655</v>
+        <v>0.59330143540669855</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95522388059701491</v>
+        <v>0.9569377990430622</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1179,11 +1179,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92039800995024879</v>
+        <v>0.92344497607655507</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="10">
+      <c r="C91" s="45">
         <v>0</v>
       </c>
       <c r="D91" s="10">
@@ -3198,12 +3198,24 @@
         <v>10</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="56"/>
+      <c r="C92" s="9">
+        <v>8</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
+      <c r="E92" s="9">
+        <v>8</v>
+      </c>
+      <c r="F92" s="9">
+        <v>8</v>
+      </c>
+      <c r="G92" s="9">
+        <v>8</v>
+      </c>
+      <c r="H92" s="9">
+        <v>8</v>
+      </c>
       <c r="I92" s="36" t="s">
         <v>38</v>
       </c>
@@ -3262,11 +3274,11 @@
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D96" s="11">
         <f t="shared" si="11"/>
@@ -3274,19 +3286,19 @@
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,21 +977,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.76076555023923442</v>
+        <v>0.76415094339622647</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1025,13 +1025,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.59330143540669855</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1061,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93301435406698563</v>
+        <v>0.93396226415094341</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,13 +1105,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59330143540669855</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1139,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.9569377990430622</v>
+        <v>0.95754716981132071</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1179,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92344497607655507</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="G91" s="9">
         <v>4</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="42">
         <v>4</v>
       </c>
       <c r="I91" s="55" t="s">
@@ -3193,12 +3193,12 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="9">
+      <c r="C92" s="41">
         <v>8</v>
       </c>
       <c r="D92" s="10">
@@ -3213,7 +3213,7 @@
       <c r="G92" s="9">
         <v>8</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="42">
         <v>8</v>
       </c>
       <c r="I92" s="36" t="s">
@@ -3222,24 +3222,36 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="56"/>
+      <c r="C93" s="41">
+        <v>3</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
+      <c r="E93" s="9">
+        <v>3</v>
+      </c>
+      <c r="F93" s="10">
+        <v>0</v>
+      </c>
+      <c r="G93" s="9">
+        <v>3</v>
+      </c>
+      <c r="H93" s="42">
+        <v>3</v>
+      </c>
       <c r="I93" s="37" t="s">
         <v>7</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3266,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3269,16 +3281,16 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" s="11">
         <f t="shared" si="11"/>
@@ -3286,7 +3298,7 @@
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
@@ -3294,18 +3306,18 @@
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3320,7 +3332,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3349,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3354,7 +3366,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3371,7 +3383,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +3398,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3401,7 +3413,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3436,8 +3448,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3452,7 +3464,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3469,7 +3481,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3486,7 +3498,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3515,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +3530,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3533,7 +3545,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3568,8 +3580,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3596,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3601,7 +3613,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3618,7 +3630,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3635,7 +3647,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3665,7 +3677,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3700,8 +3712,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3716,7 +3728,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3745,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3762,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3782,7 +3794,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3797,7 +3809,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3832,8 +3844,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3848,7 +3860,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3865,7 +3877,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3899,7 +3911,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3914,7 +3926,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3929,7 +3941,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3964,8 +3976,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3980,7 +3992,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -3995,7 +4007,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4010,7 +4022,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +4037,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4040,7 +4052,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4055,7 +4067,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4090,8 +4102,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4106,7 +4118,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4133,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4136,7 +4148,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4151,7 +4163,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4166,7 +4178,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4181,7 +4193,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4216,8 +4228,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4232,7 +4244,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4249,7 +4261,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4266,7 +4278,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4283,7 +4295,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4298,7 +4310,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4313,7 +4325,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4348,8 +4360,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4364,7 +4376,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4381,7 +4393,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4398,7 +4410,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4415,7 +4427,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4430,7 +4442,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4445,7 +4457,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4480,8 +4492,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4496,7 +4508,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4525,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4530,7 +4542,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4547,7 +4559,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4562,7 +4574,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4577,7 +4589,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,15 +977,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.76415094339622647</v>
+        <v>0.76635514018691586</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1021,11 +1021,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.58490566037735847</v>
+        <v>0.59345794392523366</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1061,11 +1061,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93396226415094341</v>
+        <v>0.93457943925233644</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58490566037735847</v>
+        <v>0.57943925233644855</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95754716981132071</v>
+        <v>0.95794392523364491</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1179,11 +1179,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92452830188679247</v>
+        <v>0.92523364485981308</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3230,8 +3230,8 @@
       <c r="C93" s="41">
         <v>3</v>
       </c>
-      <c r="D93" s="10">
-        <v>0</v>
+      <c r="D93" s="46">
+        <v>1</v>
       </c>
       <c r="E93" s="9">
         <v>3</v>
@@ -3256,12 +3256,24 @@
         <v>12</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="56"/>
+      <c r="C94" s="41">
+        <v>2</v>
+      </c>
+      <c r="D94" s="9">
+        <v>2</v>
+      </c>
+      <c r="E94" s="9">
+        <v>2</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0</v>
+      </c>
+      <c r="G94" s="9">
+        <v>2</v>
+      </c>
+      <c r="H94" s="42">
+        <v>2</v>
+      </c>
       <c r="I94" s="38"/>
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
@@ -3286,19 +3298,19 @@
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
@@ -3306,11 +3318,11 @@
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95794392523364491</v>
+        <v>0.94859813084112155</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -3268,8 +3268,8 @@
       <c r="F94" s="10">
         <v>0</v>
       </c>
-      <c r="G94" s="9">
-        <v>2</v>
+      <c r="G94" s="10">
+        <v>0</v>
       </c>
       <c r="H94" s="42">
         <v>2</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -981,17 +981,17 @@
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.76635514018691586</v>
+        <v>0.78504672897196259</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1061,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93457943925233644</v>
+        <v>0.94392523364485981</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1101,17 +1101,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57943925233644855</v>
+        <v>0.59813084112149528</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1139,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.94859813084112155</v>
+        <v>0.96728971962616828</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1179,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92523364485981308</v>
+        <v>0.94392523364485981</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3278,22 +3278,34 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B95" s="11"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="57"/>
+      <c r="C95" s="43">
+        <v>4</v>
+      </c>
+      <c r="D95" s="23">
+        <v>0</v>
+      </c>
+      <c r="E95" s="24">
+        <v>2</v>
+      </c>
+      <c r="F95" s="22">
+        <v>4</v>
+      </c>
+      <c r="G95" s="22">
+        <v>4</v>
+      </c>
+      <c r="H95" s="44">
+        <v>4</v>
+      </c>
       <c r="I95" s="39"/>
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3302,7 +3314,7 @@
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="11">
         <f t="shared" si="11"/>
@@ -3310,26 +3322,26 @@
       </c>
       <c r="E96" s="11">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G96" s="11">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H96" s="11">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3344,7 +3356,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +3373,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3390,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3407,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3410,7 +3422,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3425,7 +3437,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3460,8 +3472,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3476,7 +3488,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3505,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3510,7 +3522,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3527,7 +3539,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3542,7 +3554,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3557,7 +3569,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3592,8 +3604,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3608,7 +3620,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3625,7 +3637,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +3654,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3659,7 +3671,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3686,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3689,7 +3701,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3724,8 +3736,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3740,7 +3752,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3769,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3774,7 +3786,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3791,7 +3803,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3806,7 +3818,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3821,7 +3833,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3856,8 +3868,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3872,7 +3884,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3889,7 +3901,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3906,7 +3918,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3923,7 +3935,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3938,7 +3950,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3953,7 +3965,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -3988,8 +4000,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4004,7 +4016,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4031,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4034,7 +4046,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4049,7 +4061,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4064,7 +4076,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4079,7 +4091,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4114,8 +4126,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4130,7 +4142,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4145,7 +4157,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4172,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4190,7 +4202,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4205,7 +4217,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4240,8 +4252,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4256,7 +4268,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +4285,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4290,7 +4302,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4307,7 +4319,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4322,7 +4334,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4337,7 +4349,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4372,8 +4384,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4388,7 +4400,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4405,7 +4417,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4422,7 +4434,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4439,7 +4451,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4454,7 +4466,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4469,7 +4481,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4504,8 +4516,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4520,7 +4532,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4537,7 +4549,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4554,7 +4566,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4571,7 +4583,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4586,7 +4598,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4601,7 +4613,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,13 +985,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.78504672897196259</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1025,13 +1025,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.59345794392523366</v>
+        <v>0.57207207207207211</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1061,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.94392523364485981</v>
+        <v>0.92792792792792789</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,13 +1105,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59813084112149528</v>
+        <v>0.57657657657657657</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1139,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.96728971962616828</v>
+        <v>0.9504504504504504</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1179,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.94392523364485981</v>
+        <v>0.92792792792792789</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3305,12 +3305,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C96" s="11">
         <f t="shared" ref="C96:H96" si="11">SUM(C91:C95)</f>
@@ -3340,8 +3340,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3356,24 +3356,36 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="56"/>
+      <c r="C99" s="45">
+        <v>0</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+      <c r="E99" s="9">
+        <v>4</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>4</v>
+      </c>
+      <c r="H99" s="42">
+        <v>4</v>
+      </c>
       <c r="I99" s="55" t="s">
         <v>6</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +3402,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3407,7 +3419,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3434,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3437,12 +3449,12 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:H104" si="12">SUM(C99:C103)</f>
@@ -3454,7 +3466,7 @@
       </c>
       <c r="E104" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="12"/>
@@ -3462,18 +3474,18 @@
       </c>
       <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3488,7 +3500,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3505,7 +3517,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3522,7 +3534,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3539,7 +3551,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3554,7 +3566,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3569,7 +3581,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3604,8 +3616,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3620,7 +3632,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3637,7 +3649,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3654,7 +3666,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3671,7 +3683,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3686,7 +3698,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3713,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3736,8 +3748,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3752,7 +3764,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3769,7 +3781,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3786,7 +3798,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +3815,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3818,7 +3830,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3833,7 +3845,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3868,8 +3880,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3884,7 +3896,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +3913,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3918,7 +3930,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +3947,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3962,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3965,7 +3977,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4000,8 +4012,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4016,7 +4028,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4031,7 +4043,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4046,7 +4058,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4073,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4076,7 +4088,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4091,7 +4103,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4126,8 +4138,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4142,7 +4154,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4157,7 +4169,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4172,7 +4184,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4187,7 +4199,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4202,7 +4214,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4217,7 +4229,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4252,8 +4264,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4268,7 +4280,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4297,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4302,7 +4314,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4319,7 +4331,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4334,7 +4346,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4349,7 +4361,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4384,8 +4396,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4400,7 +4412,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4417,7 +4429,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4434,7 +4446,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4451,7 +4463,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4466,7 +4478,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4481,7 +4493,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4516,8 +4528,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4532,7 +4544,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4549,7 +4561,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4566,7 +4578,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4583,7 +4595,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4598,7 +4610,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4613,7 +4625,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,23 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,13 +985,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.7567567567567568</v>
+        <v>0.73043478260869565</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1021,17 +1021,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.57207207207207211</v>
+        <v>0.57391304347826089</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1061,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92792792792792789</v>
+        <v>0.93043478260869561</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1101,17 +1101,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57657657657657657</v>
+        <v>0.59130434782608698</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1139,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.9504504504504504</v>
+        <v>0.95217391304347831</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1179,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92792792792792789</v>
+        <v>0.93043478260869561</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1424,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1624,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2026,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2226,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3340,8 +3340,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3385,24 +3385,36 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="56"/>
+      <c r="C100" s="45">
+        <v>0</v>
+      </c>
+      <c r="D100" s="46">
+        <v>5</v>
+      </c>
+      <c r="E100" s="9">
+        <v>8</v>
+      </c>
+      <c r="F100" s="9">
+        <v>8</v>
+      </c>
+      <c r="G100" s="9">
+        <v>8</v>
+      </c>
+      <c r="H100" s="42">
+        <v>8</v>
+      </c>
       <c r="I100" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3419,7 +3431,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3434,7 +3446,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3449,12 +3461,12 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:H104" si="12">SUM(C99:C103)</f>
@@ -3462,30 +3474,30 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +3512,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3517,7 +3529,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3534,7 +3546,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3551,7 +3563,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3566,7 +3578,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3581,7 +3593,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3616,8 +3628,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3632,7 +3644,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3649,7 +3661,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3666,7 +3678,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3695,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3710,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3713,7 +3725,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3748,8 +3760,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3764,7 +3776,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3793,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3798,7 +3810,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3815,7 +3827,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3830,7 +3842,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3845,7 +3857,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3880,8 +3892,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3896,7 +3908,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3913,7 +3925,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +3942,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -3947,7 +3959,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +3974,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +3989,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4012,8 +4024,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4028,7 +4040,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4055,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4058,7 +4070,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4073,7 +4085,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +4100,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4103,7 +4115,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4138,8 +4150,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4154,7 +4166,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4169,7 +4181,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4196,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4199,7 +4211,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4214,7 +4226,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4229,7 +4241,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4264,8 +4276,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4280,7 +4292,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4297,7 +4309,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4314,7 +4326,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4331,7 +4343,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4346,7 +4358,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4361,7 +4373,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4396,8 +4408,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4412,7 +4424,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4429,7 +4441,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4446,7 +4458,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4463,7 +4475,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4490,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4493,7 +4505,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4528,8 +4540,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4544,7 +4556,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4561,7 +4573,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4578,7 +4590,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4595,7 +4607,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4610,7 +4622,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4625,7 +4637,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,7 +985,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.73043478260869565</v>
+        <v>0.72103004291845496</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1021,11 +1021,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.57391304347826089</v>
+        <v>0.57939914163090134</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1061,11 +1061,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93043478260869561</v>
+        <v>0.93133047210300424</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1101,11 +1101,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59130434782608698</v>
+        <v>0.59656652360515017</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95217391304347831</v>
+        <v>0.9527896995708155</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1179,11 +1179,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.93043478260869561</v>
+        <v>0.93133047210300424</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3419,12 +3419,24 @@
         <v>11</v>
       </c>
       <c r="B101" s="12"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="56"/>
+      <c r="C101" s="45">
+        <v>0</v>
+      </c>
+      <c r="D101" s="9">
+        <v>3</v>
+      </c>
+      <c r="E101" s="9">
+        <v>3</v>
+      </c>
+      <c r="F101" s="9">
+        <v>3</v>
+      </c>
+      <c r="G101" s="9">
+        <v>3</v>
+      </c>
+      <c r="H101" s="42">
+        <v>3</v>
+      </c>
       <c r="I101" s="37" t="s">
         <v>7</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B104" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:H104" si="12">SUM(C99:C103)</f>
@@ -3474,23 +3486,23 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,7 +985,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72103004291845496</v>
+        <v>0.71489361702127663</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.57939914163090134</v>
+        <v>0.57446808510638303</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1061,11 +1061,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93133047210300424</v>
+        <v>0.93191489361702129</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1101,11 +1101,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59656652360515017</v>
+        <v>0.6</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.9527896995708155</v>
+        <v>0.95319148936170217</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1179,11 +1179,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.93133047210300424</v>
+        <v>0.93191489361702129</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3448,12 +3448,24 @@
         <v>12</v>
       </c>
       <c r="B102" s="12"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="56"/>
+      <c r="C102" s="45">
+        <v>0</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
+      <c r="E102" s="9">
+        <v>2</v>
+      </c>
+      <c r="F102" s="9">
+        <v>2</v>
+      </c>
+      <c r="G102" s="9">
+        <v>2</v>
+      </c>
+      <c r="H102" s="42">
+        <v>2</v>
+      </c>
       <c r="I102" s="38"/>
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
@@ -3478,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="B104" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:H104" si="12">SUM(C99:C103)</f>
@@ -3490,19 +3502,19 @@
       </c>
       <c r="E104" s="11">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
@@ -977,7 +977,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -985,7 +985,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.71489361702127663</v>
+        <v>0.70292887029288698</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.57446808510638303</v>
+        <v>0.56485355648535562</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1061,11 +1061,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93191489361702129</v>
+        <v>0.93305439330543938</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1101,11 +1101,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.6</v>
+        <v>0.60669456066945604</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.95319148936170217</v>
+        <v>0.93723849372384938</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.93191489361702129</v>
+        <v>0.91631799163179917</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3475,12 +3475,24 @@
         <v>13</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="57"/>
+      <c r="C103" s="54">
+        <v>0</v>
+      </c>
+      <c r="D103" s="23">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>4</v>
+      </c>
+      <c r="F103" s="22">
+        <v>4</v>
+      </c>
+      <c r="G103" s="23">
+        <v>0</v>
+      </c>
+      <c r="H103" s="50">
+        <v>0</v>
+      </c>
       <c r="I103" s="39"/>
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
@@ -3490,7 +3502,7 @@
         <v>15</v>
       </c>
       <c r="B104" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:H104" si="12">SUM(C99:C103)</f>
@@ -3502,11 +3514,11 @@
       </c>
       <c r="E104" s="11">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F104" s="11">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G104" s="11">
         <f t="shared" si="12"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93723849372384938</v>
+        <v>0.94560669456066948</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -3487,8 +3487,8 @@
       <c r="F103" s="22">
         <v>4</v>
       </c>
-      <c r="G103" s="23">
-        <v>0</v>
+      <c r="G103" s="24">
+        <v>2</v>
       </c>
       <c r="H103" s="50">
         <v>0</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="G104" s="11">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" s="11">
         <f t="shared" si="12"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,15 +977,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.70292887029288698</v>
+        <v>0.70781893004115226</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.56485355648535562</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93305439330543938</v>
+        <v>0.91769547325102885</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1101,11 +1101,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.60669456066945604</v>
+        <v>0.61316872427983538</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1139,11 +1139,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.94560669456066948</v>
+        <v>0.94650205761316875</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1179,11 +1179,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91631799163179917</v>
+        <v>0.91769547325102885</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3553,12 +3553,24 @@
         <v>9</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="56"/>
+      <c r="C107" s="48">
+        <v>4</v>
+      </c>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
+      <c r="E107" s="10">
+        <v>0</v>
+      </c>
+      <c r="F107" s="46">
+        <v>4</v>
+      </c>
+      <c r="G107" s="46">
+        <v>4</v>
+      </c>
+      <c r="H107" s="46">
+        <v>4</v>
+      </c>
       <c r="I107" s="55" t="s">
         <v>6</v>
       </c>
@@ -3634,11 +3646,11 @@
         <v>15</v>
       </c>
       <c r="B112" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C112" s="11">
         <f t="shared" ref="C112:H112" si="13">SUM(C107:C111)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D112" s="11">
         <f t="shared" si="13"/>
@@ -3650,15 +3662,15 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G112" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H112" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riefo\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -624,6 +624,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -911,23 +914,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,21 +980,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.70781893004115226</v>
+        <v>0.71713147410358569</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1025,13 +1028,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.55555555555555558</v>
+        <v>0.53784860557768921</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,17 +1064,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91769547325102885</v>
+        <v>0.91235059760956172</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1105,13 +1108,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.61316872427983538</v>
+        <v>0.59362549800796816</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1139,17 +1142,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.94650205761316875</v>
+        <v>0.94820717131474108</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,17 +1182,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91769547325102885</v>
+        <v>0.91633466135458164</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1224,10 +1227,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1245,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1276,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1336,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1363,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1424,10 +1427,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1474,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1536,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1563,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1592,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1624,8 +1627,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1643,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1672,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1703,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1734,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1763,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1824,8 +1827,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1840,7 +1843,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +1905,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1936,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1965,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +1994,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2026,8 +2029,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2045,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2107,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2133,7 +2136,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2194,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2226,8 +2229,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2245,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2276,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2307,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2338,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2365,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2392,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2424,8 +2427,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2443,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2502,7 +2505,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2565,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2591,7 +2594,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2629,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2637,7 +2640,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2652,7 +2655,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2670,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2685,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2700,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2715,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2730,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2762,8 +2765,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2781,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2798,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2829,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2860,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2887,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2914,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2946,8 +2949,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2996,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3027,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3058,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3087,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3148,8 +3151,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3167,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3193,7 +3196,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3225,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3254,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3278,7 +3281,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3305,7 +3308,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3340,8 +3343,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3470,7 +3473,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3497,7 +3500,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3532,8 +3535,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3548,12 +3551,12 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="48">
+      <c r="C107" s="41">
         <v>4</v>
       </c>
       <c r="D107" s="10">
@@ -3562,13 +3565,13 @@
       <c r="E107" s="10">
         <v>0</v>
       </c>
-      <c r="F107" s="46">
-        <v>4</v>
-      </c>
-      <c r="G107" s="46">
-        <v>4</v>
-      </c>
-      <c r="H107" s="46">
+      <c r="F107" s="9">
+        <v>4</v>
+      </c>
+      <c r="G107" s="9">
+        <v>4</v>
+      </c>
+      <c r="H107" s="9">
         <v>4</v>
       </c>
       <c r="I107" s="55" t="s">
@@ -3577,24 +3580,36 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="12"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="56"/>
+      <c r="C108" s="41">
+        <v>8</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
+      <c r="E108" s="46">
+        <v>6</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0</v>
+      </c>
+      <c r="G108" s="9">
+        <v>8</v>
+      </c>
+      <c r="H108" s="58">
+        <v>7</v>
+      </c>
       <c r="I108" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +3626,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +3641,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3641,16 +3656,16 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B112" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C112" s="11">
         <f t="shared" ref="C112:H112" si="13">SUM(C107:C111)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D112" s="11">
         <f t="shared" si="13"/>
@@ -3658,7 +3673,7 @@
       </c>
       <c r="E112" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F112" s="11">
         <f t="shared" si="13"/>
@@ -3666,18 +3681,18 @@
       </c>
       <c r="G112" s="11">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H112" s="11">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3692,7 +3707,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3724,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3726,7 +3741,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3743,7 +3758,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3773,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3773,7 +3788,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3808,8 +3823,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3824,7 +3839,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3841,7 +3856,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -3858,7 +3873,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -3875,7 +3890,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +3905,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3905,7 +3920,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -3940,8 +3955,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -3956,7 +3971,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +3988,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -3990,7 +4005,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4007,7 +4022,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4022,7 +4037,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4037,7 +4052,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4072,8 +4087,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4088,7 +4103,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4103,7 +4118,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4118,7 +4133,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4148,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4163,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4163,7 +4178,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4198,8 +4213,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4214,7 +4229,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4229,7 +4244,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4244,7 +4259,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4259,7 +4274,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4289,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4304,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4324,8 +4339,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4340,7 +4355,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4372,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4389,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4391,7 +4406,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4406,7 +4421,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4421,7 +4436,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4456,8 +4471,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4472,7 +4487,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4489,7 +4504,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4506,7 +4521,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +4538,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4553,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4553,7 +4568,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4588,8 +4603,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4604,7 +4619,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4621,7 +4636,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4638,7 +4653,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4655,7 +4670,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4670,7 +4685,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +4700,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,15 +980,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.71713147410358569</v>
+        <v>0.72047244094488194</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1024,11 +1024,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.53784860557768921</v>
+        <v>0.54330708661417326</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1064,11 +1064,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91235059760956172</v>
+        <v>0.91338582677165359</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1104,11 +1104,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59362549800796816</v>
+        <v>0.59842519685039375</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.94820717131474108</v>
+        <v>0.93700787401574803</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1182,11 +1182,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91633466135458164</v>
+        <v>0.91732283464566933</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3614,12 +3614,24 @@
         <v>11</v>
       </c>
       <c r="B109" s="12"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="56"/>
+      <c r="C109" s="41">
+        <v>3</v>
+      </c>
+      <c r="D109" s="9">
+        <v>3</v>
+      </c>
+      <c r="E109" s="9">
+        <v>3</v>
+      </c>
+      <c r="F109" s="9">
+        <v>3</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0</v>
+      </c>
+      <c r="H109" s="42">
+        <v>3</v>
+      </c>
       <c r="I109" s="37" t="s">
         <v>7</v>
       </c>
@@ -3661,23 +3673,23 @@
         <v>15</v>
       </c>
       <c r="B112" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C112" s="11">
         <f t="shared" ref="C112:H112" si="13">SUM(C107:C111)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D112" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F112" s="11">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G112" s="11">
         <f t="shared" si="13"/>
@@ -3685,7 +3697,7 @@
       </c>
       <c r="H112" s="11">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,15 +980,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72047244094488194</v>
+        <v>0.71923076923076923</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.54330708661417326</v>
+        <v>0.53076923076923077</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1064,11 +1064,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91338582677165359</v>
+        <v>0.91538461538461535</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1104,11 +1104,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59842519685039375</v>
+        <v>0.59230769230769231</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1142,11 +1142,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93700787401574803</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1182,11 +1182,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91732283464566933</v>
+        <v>0.91923076923076918</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3643,12 +3643,24 @@
         <v>12</v>
       </c>
       <c r="B110" s="12"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="56"/>
+      <c r="C110" s="45">
+        <v>0</v>
+      </c>
+      <c r="D110" s="10">
+        <v>0</v>
+      </c>
+      <c r="E110" s="9">
+        <v>2</v>
+      </c>
+      <c r="F110" s="9">
+        <v>2</v>
+      </c>
+      <c r="G110" s="9">
+        <v>2</v>
+      </c>
+      <c r="H110" s="42">
+        <v>2</v>
+      </c>
       <c r="I110" s="38"/>
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
@@ -3658,12 +3670,24 @@
         <v>13</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="57"/>
+      <c r="C111" s="43">
+        <v>4</v>
+      </c>
+      <c r="D111" s="23">
+        <v>0</v>
+      </c>
+      <c r="E111" s="22">
+        <v>4</v>
+      </c>
+      <c r="F111" s="23">
+        <v>0</v>
+      </c>
+      <c r="G111" s="23">
+        <v>0</v>
+      </c>
+      <c r="H111" s="44">
+        <v>4</v>
+      </c>
       <c r="I111" s="39"/>
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
@@ -3673,11 +3697,11 @@
         <v>15</v>
       </c>
       <c r="B112" s="11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C112" s="11">
         <f t="shared" ref="C112:H112" si="13">SUM(C107:C111)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" s="11">
         <f t="shared" si="13"/>
@@ -3685,19 +3709,19 @@
       </c>
       <c r="E112" s="11">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F112" s="11">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G112" s="11">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H112" s="11">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,15 +980,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.71923076923076923</v>
+        <v>0.73897058823529416</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.53076923076923077</v>
+        <v>0.50735294117647056</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1064,11 +1064,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91538461538461535</v>
+        <v>0.88970588235294112</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59230769230769231</v>
+        <v>0.56617647058823528</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1142,11 +1142,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.92307692307692313</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1182,11 +1182,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.91923076923076918</v>
+        <v>0.89338235294117652</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3643,8 +3643,8 @@
         <v>12</v>
       </c>
       <c r="B110" s="12"/>
-      <c r="C110" s="45">
-        <v>0</v>
+      <c r="C110" s="41">
+        <v>2</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C112" s="11">
         <f t="shared" ref="C112:H112" si="13">SUM(C107:C111)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D112" s="11">
         <f t="shared" si="13"/>
@@ -3748,12 +3748,24 @@
         <v>9</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="56"/>
+      <c r="C115" s="41">
+        <v>4</v>
+      </c>
+      <c r="D115" s="10">
+        <v>0</v>
+      </c>
+      <c r="E115" s="9">
+        <v>4</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9">
+        <v>4</v>
+      </c>
+      <c r="H115" s="42">
+        <v>4</v>
+      </c>
       <c r="I115" s="55" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +3777,9 @@
         <v>10</v>
       </c>
       <c r="B116" s="12"/>
-      <c r="C116" s="19"/>
+      <c r="C116" s="41">
+        <v>8</v>
+      </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -3829,11 +3843,11 @@
         <v>15</v>
       </c>
       <c r="B120" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C120" s="11">
         <f t="shared" ref="C120:H120" si="14">SUM(C115:C119)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D120" s="11">
         <f t="shared" si="14"/>
@@ -3841,7 +3855,7 @@
       </c>
       <c r="E120" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F120" s="11">
         <f t="shared" si="14"/>
@@ -3849,11 +3863,11 @@
       </c>
       <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,15 +980,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.73897058823529416</v>
+        <v>0.71590909090909094</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.50735294117647056</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.88970588235294112</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56617647058823528</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.8970588235294118</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89338235294117652</v>
+        <v>0.92045454545454541</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3748,8 +3748,8 @@
         <v>9</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="C115" s="41">
-        <v>4</v>
+      <c r="C115" s="45">
+        <v>0</v>
       </c>
       <c r="D115" s="10">
         <v>0</v>
@@ -3777,9 +3777,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="12"/>
-      <c r="C116" s="41">
-        <v>8</v>
-      </c>
+      <c r="C116" s="19"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -3843,11 +3841,11 @@
         <v>15</v>
       </c>
       <c r="B120" s="11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C120" s="11">
         <f t="shared" ref="C120:H120" si="14">SUM(C115:C119)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D120" s="11">
         <f t="shared" si="14"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,15 +980,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.71590909090909094</v>
+        <v>0.72426470588235292</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1024,11 +1024,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.52272727272727271</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1064,11 +1064,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91666666666666663</v>
+        <v>0.91911764705882348</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58333333333333337</v>
+        <v>0.56617647058823528</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1142,11 +1142,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.9242424242424242</v>
+        <v>0.93382352941176472</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.92045454545454541</v>
+        <v>0.89338235294117652</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3682,8 +3682,8 @@
       <c r="F111" s="23">
         <v>0</v>
       </c>
-      <c r="G111" s="23">
-        <v>0</v>
+      <c r="G111" s="24">
+        <v>3</v>
       </c>
       <c r="H111" s="44">
         <v>4</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="G112" s="11">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H112" s="11">
         <f t="shared" si="13"/>
@@ -3777,12 +3777,24 @@
         <v>10</v>
       </c>
       <c r="B116" s="12"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="56"/>
+      <c r="C116" s="41">
+        <v>8</v>
+      </c>
+      <c r="D116" s="46">
+        <v>4</v>
+      </c>
+      <c r="E116" s="9">
+        <v>8</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0</v>
+      </c>
+      <c r="G116" s="46">
+        <v>7</v>
+      </c>
+      <c r="H116" s="49">
+        <v>0</v>
+      </c>
       <c r="I116" s="36" t="s">
         <v>38</v>
       </c>
@@ -3841,19 +3853,19 @@
         <v>15</v>
       </c>
       <c r="B120" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C120" s="11">
         <f t="shared" ref="C120:H120" si="14">SUM(C115:C119)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D120" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F120" s="11">
         <f t="shared" si="14"/>
@@ -3861,7 +3873,7 @@
       </c>
       <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,11 +1142,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93382352941176472</v>
+        <v>0.93014705882352944</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H116" s="49">
         <v>0</v>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,15 +980,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72426470588235292</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.5220588235294118</v>
+        <v>0.51636363636363636</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1064,11 +1064,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91911764705882348</v>
+        <v>0.92</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56617647058823528</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1142,11 +1142,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93014705882352944</v>
+        <v>0.93090909090909091</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1182,11 +1182,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89338235294117652</v>
+        <v>0.89454545454545453</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3806,12 +3806,24 @@
         <v>11</v>
       </c>
       <c r="B117" s="12"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="56"/>
+      <c r="C117" s="41">
+        <v>3</v>
+      </c>
+      <c r="D117" s="10">
+        <v>0</v>
+      </c>
+      <c r="E117" s="9">
+        <v>3</v>
+      </c>
+      <c r="F117" s="10">
+        <v>0</v>
+      </c>
+      <c r="G117" s="9">
+        <v>3</v>
+      </c>
+      <c r="H117" s="42">
+        <v>3</v>
+      </c>
       <c r="I117" s="37" t="s">
         <v>7</v>
       </c>
@@ -3853,11 +3865,11 @@
         <v>15</v>
       </c>
       <c r="B120" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C120" s="11">
         <f t="shared" ref="C120:H120" si="14">SUM(C115:C119)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D120" s="11">
         <f t="shared" si="14"/>
@@ -3865,7 +3877,7 @@
       </c>
       <c r="E120" s="11">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F120" s="11">
         <f t="shared" si="14"/>
@@ -3873,11 +3885,11 @@
       </c>
       <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="75">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Michiel Ziek : Fahrettin Te Laat : Sven Te Laat :</t>
+  </si>
+  <si>
+    <t>Rief geen laptop, werkt thuis</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,7 +3772,9 @@
       <c r="I115" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J115" s="2"/>
+      <c r="J115" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -3798,7 +3803,9 @@
       <c r="I116" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -3827,7 +3834,9 @@
       <c r="I117" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K117" s="12"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,11 +987,11 @@
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72727272727272729</v>
+        <v>0.7345454545454545</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1067,11 +1067,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92</v>
+        <v>0.92727272727272725</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1145,11 +1145,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93090909090909091</v>
+        <v>0.93818181818181823</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1185,11 +1185,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89454545454545453</v>
+        <v>0.90181818181818185</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3844,14 +3844,28 @@
         <v>12</v>
       </c>
       <c r="B118" s="12"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="56"/>
+      <c r="C118" s="41">
+        <v>2</v>
+      </c>
+      <c r="D118" s="10">
+        <v>0</v>
+      </c>
+      <c r="E118" s="9">
+        <v>2</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0</v>
+      </c>
+      <c r="G118" s="9">
+        <v>2</v>
+      </c>
+      <c r="H118" s="42">
+        <v>2</v>
+      </c>
       <c r="I118" s="38"/>
-      <c r="J118" s="2"/>
+      <c r="J118" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K118" s="12"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3878,7 +3892,7 @@
       </c>
       <c r="C120" s="11">
         <f t="shared" ref="C120:H120" si="14">SUM(C115:C119)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D120" s="11">
         <f t="shared" si="14"/>
@@ -3886,7 +3900,7 @@
       </c>
       <c r="E120" s="11">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F120" s="11">
         <f t="shared" si="14"/>
@@ -3894,11 +3908,11 @@
       </c>
       <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,15 +983,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.7345454545454545</v>
+        <v>0.73309608540925264</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.51636363636363636</v>
+        <v>0.50533807829181498</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92727272727272725</v>
+        <v>0.90747330960854089</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56000000000000005</v>
+        <v>0.54804270462633453</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.93818181818181823</v>
+        <v>0.91814946619217086</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1185,11 +1185,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90181818181818185</v>
+        <v>0.89679715302491103</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -3873,14 +3873,28 @@
         <v>13</v>
       </c>
       <c r="B119" s="11"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="57"/>
+      <c r="C119" s="43">
+        <v>4</v>
+      </c>
+      <c r="D119" s="23">
+        <v>0</v>
+      </c>
+      <c r="E119" s="23">
+        <v>0</v>
+      </c>
+      <c r="F119" s="23">
+        <v>0</v>
+      </c>
+      <c r="G119" s="23">
+        <v>0</v>
+      </c>
+      <c r="H119" s="44">
+        <v>4</v>
+      </c>
       <c r="I119" s="39"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3888,14 +3902,13 @@
         <v>15</v>
       </c>
       <c r="B120" s="11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C120" s="11">
-        <f t="shared" ref="C120:H120" si="14">SUM(C115:C119)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D120" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D120:H120" si="14">SUM(D115:D119)</f>
         <v>4</v>
       </c>
       <c r="E120" s="11">
@@ -3912,7 +3925,7 @@
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Rief geen laptop, werkt thuis</t>
+  </si>
+  <si>
+    <t>Totaal % Groep</t>
   </si>
 </sst>
 </file>
@@ -917,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.90747330960854089</v>
+        <v>0.91459074733096091</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1145,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91814946619217086</v>
+        <v>0.92526690391459077</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1232,6 +1235,13 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
+      <c r="L9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="21">
+        <f>SUM(M2:M8)</f>
+        <v>4.5231316725978656</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3879,14 +3889,14 @@
       <c r="D119" s="23">
         <v>0</v>
       </c>
-      <c r="E119" s="23">
-        <v>0</v>
+      <c r="E119" s="24">
+        <v>2</v>
       </c>
       <c r="F119" s="23">
         <v>0</v>
       </c>
-      <c r="G119" s="23">
-        <v>0</v>
+      <c r="G119" s="24">
+        <v>2</v>
       </c>
       <c r="H119" s="44">
         <v>4</v>
@@ -3913,7 +3923,7 @@
       </c>
       <c r="E120" s="11">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F120" s="11">
         <f t="shared" si="14"/>
@@ -3921,7 +3931,7 @@
       </c>
       <c r="G120" s="11">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="14"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jaar 2\Game-Lab-1.1\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.73309608540925264</v>
+        <v>0.70307167235494883</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.50533807829181498</v>
+        <v>0.48464163822525597</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91459074733096091</v>
+        <v>0.91808873720136519</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.54804270462633453</v>
+        <v>0.53924914675767921</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.92526690391459077</v>
+        <v>0.92832764505119458</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1188,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89679715302491103</v>
+        <v>0.90102389078498291</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5231316725978656</v>
+        <v>4.4744027303754264</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3962,12 +3962,24 @@
         <v>9</v>
       </c>
       <c r="B123" s="12"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="56"/>
+      <c r="C123" s="45">
+        <v>0</v>
+      </c>
+      <c r="D123" s="10">
+        <v>0</v>
+      </c>
+      <c r="E123" s="9">
+        <v>4</v>
+      </c>
+      <c r="F123" s="9">
+        <v>4</v>
+      </c>
+      <c r="G123" s="9">
+        <v>4</v>
+      </c>
+      <c r="H123" s="42">
+        <v>4</v>
+      </c>
       <c r="I123" s="55" t="s">
         <v>6</v>
       </c>
@@ -3979,12 +3991,24 @@
         <v>10</v>
       </c>
       <c r="B124" s="12"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="56"/>
+      <c r="C124" s="45">
+        <v>0</v>
+      </c>
+      <c r="D124" s="10">
+        <v>0</v>
+      </c>
+      <c r="E124" s="9">
+        <v>8</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0</v>
+      </c>
+      <c r="G124" s="9">
+        <v>8</v>
+      </c>
+      <c r="H124" s="42">
+        <v>8</v>
+      </c>
       <c r="I124" s="36" t="s">
         <v>38</v>
       </c>
@@ -4043,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4055,19 +4079,19 @@
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jaar 2\Game-Lab-1.1\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1110,17 +1110,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.53924914675767921</v>
+        <v>0.55972696245733788</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4744027303754264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4948805460750849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4000,8 +4000,8 @@
       <c r="E124" s="9">
         <v>8</v>
       </c>
-      <c r="F124" s="10">
-        <v>0</v>
+      <c r="F124" s="46">
+        <v>6</v>
       </c>
       <c r="G124" s="9">
         <v>8</v>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>
@@ -4097,8 +4097,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4229,8 +4229,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4260,7 +4260,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4355,8 +4355,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4481,8 +4481,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4578,7 +4578,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4613,8 +4613,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4745,8 +4745,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.70307167235494883</v>
+        <v>0.69830508474576269</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.48464163822525597</v>
+        <v>0.48135593220338985</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91808873720136519</v>
+        <v>0.91864406779661012</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.55972696245733788</v>
+        <v>0.56271186440677967</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.92832764505119458</v>
+        <v>0.92203389830508475</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90102389078498291</v>
+        <v>0.89491525423728813</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4948805460750849</v>
+        <v>4.477966101694915</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4020,12 +4020,24 @@
         <v>11</v>
       </c>
       <c r="B125" s="12"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="56"/>
+      <c r="C125" s="45">
+        <v>0</v>
+      </c>
+      <c r="D125" s="10">
+        <v>0</v>
+      </c>
+      <c r="E125" s="9">
+        <v>2</v>
+      </c>
+      <c r="F125" s="9">
+        <v>2</v>
+      </c>
+      <c r="G125" s="10">
+        <v>0</v>
+      </c>
+      <c r="H125" s="49">
+        <v>0</v>
+      </c>
       <c r="I125" s="37" t="s">
         <v>7</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,13 +994,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.69830508474576269</v>
+        <v>0.69594594594594594</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,13 +1034,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.48135593220338985</v>
+        <v>0.47972972972972971</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,17 +1070,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91864406779661012</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1110,17 +1110,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56271186440677967</v>
+        <v>0.56418918918918914</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1148,17 +1148,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.92203389830508475</v>
+        <v>0.92905405405405406</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89491525423728813</v>
+        <v>0.90202702702702697</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.477966101694915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.4898648648648649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="E125" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" s="9">
-        <v>2</v>
-      </c>
-      <c r="G125" s="10">
-        <v>0</v>
-      </c>
-      <c r="H125" s="49">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G125" s="9">
+        <v>3</v>
+      </c>
+      <c r="H125" s="42">
+        <v>3</v>
       </c>
       <c r="I125" s="37" t="s">
         <v>7</v>
@@ -4044,7 +4044,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4074,12 +4074,12 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4091,26 +4091,26 @@
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4241,8 +4241,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4367,8 +4367,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4443,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4493,8 +4493,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4625,8 +4625,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4757,8 +4757,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,13 +994,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.69594594594594594</v>
+        <v>0.6912751677852349</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1030,17 +1030,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.47972972972972971</v>
+        <v>0.48322147651006714</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,17 +1070,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91891891891891897</v>
+        <v>0.91946308724832215</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1110,17 +1110,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56418918918918914</v>
+        <v>0.56711409395973156</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.92905405405405406</v>
+        <v>0.92281879194630867</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90202702702702697</v>
+        <v>0.90268456375838924</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4898648648648649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4865771812080535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,22 +4044,34 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="12"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="56"/>
+      <c r="C126" s="45">
+        <v>0</v>
+      </c>
+      <c r="D126" s="9">
+        <v>2</v>
+      </c>
+      <c r="E126" s="9">
+        <v>2</v>
+      </c>
+      <c r="F126" s="9">
+        <v>2</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0</v>
+      </c>
+      <c r="H126" s="42">
+        <v>2</v>
+      </c>
       <c r="I126" s="38"/>
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4074,12 +4086,12 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4087,15 +4099,15 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="H128" s="11">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4125,7 +4137,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4154,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4159,7 +4171,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4176,7 +4188,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4191,7 +4203,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4218,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4241,8 +4253,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4257,7 +4269,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4284,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4287,7 +4299,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4302,7 +4314,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4317,7 +4329,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4332,7 +4344,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4367,8 +4379,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4383,7 +4395,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4398,7 +4410,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4413,7 +4425,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4428,7 +4440,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4455,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4470,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4493,8 +4505,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4509,7 +4521,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4538,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4543,7 +4555,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4560,7 +4572,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4575,7 +4587,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4590,7 +4602,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4625,8 +4637,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4641,7 +4653,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +4670,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4675,7 +4687,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4692,7 +4704,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4707,7 +4719,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +4734,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4757,8 +4769,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4773,7 +4785,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4790,7 +4802,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4807,7 +4819,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4824,7 +4836,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4839,7 +4851,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4854,7 +4866,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,13 +994,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.6912751677852349</v>
+        <v>0.68211920529801329</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,13 +1034,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.48322147651006714</v>
+        <v>0.47682119205298013</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,17 +1070,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91946308724832215</v>
+        <v>0.92052980132450335</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1114,13 +1114,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56711409395973156</v>
+        <v>0.55960264900662249</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1152,13 +1152,13 @@
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.92281879194630867</v>
+        <v>0.91059602649006621</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1192,13 +1192,13 @@
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90268456375838924</v>
+        <v>0.89072847682119205</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4865771812080535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.4403973509933774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,27 +4071,39 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="11"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="57"/>
+      <c r="C127" s="54">
+        <v>0</v>
+      </c>
+      <c r="D127" s="23">
+        <v>0</v>
+      </c>
+      <c r="E127" s="22">
+        <v>4</v>
+      </c>
+      <c r="F127" s="23">
+        <v>0</v>
+      </c>
+      <c r="G127" s="23">
+        <v>0</v>
+      </c>
+      <c r="H127" s="23">
+        <v>0</v>
+      </c>
       <c r="I127" s="39"/>
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4103,7 +4115,7 @@
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
@@ -4121,8 +4133,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4137,7 +4149,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4154,7 +4166,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4171,7 +4183,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4188,7 +4200,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4203,7 +4215,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4218,7 +4230,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4253,8 +4265,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4269,7 +4281,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4284,7 +4296,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4299,7 +4311,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4314,7 +4326,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4341,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4344,7 +4356,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4379,8 +4391,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4395,7 +4407,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4410,7 +4422,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4425,7 +4437,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4440,7 +4452,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4455,7 +4467,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4470,7 +4482,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4505,8 +4517,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4521,7 +4533,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4550,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4555,7 +4567,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4572,7 +4584,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4587,7 +4599,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4602,7 +4614,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4637,8 +4649,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4653,7 +4665,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4670,7 +4682,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4687,7 +4699,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4704,7 +4716,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4719,7 +4731,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4734,7 +4746,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4769,8 +4781,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4785,7 +4797,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4814,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4819,7 +4831,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4836,7 +4848,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4851,7 +4863,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4866,7 +4878,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,21 +986,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.68211920529801329</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,13 +1034,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.47682119205298013</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1074,13 +1074,13 @@
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92052980132450335</v>
+        <v>0.90849673202614378</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1110,17 +1110,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.55960264900662249</v>
+        <v>0.565359477124183</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1148,17 +1148,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91059602649006621</v>
+        <v>0.90849673202614378</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89072847682119205</v>
+        <v>0.89215686274509809</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4403973509933774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4313725490196072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4149,24 +4149,36 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="12"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="56"/>
+      <c r="C131" s="9">
+        <v>4</v>
+      </c>
+      <c r="D131" s="10">
+        <v>0</v>
+      </c>
+      <c r="E131" s="10">
+        <v>0</v>
+      </c>
+      <c r="F131" s="9">
+        <v>4</v>
+      </c>
+      <c r="G131" s="46">
+        <v>3</v>
+      </c>
+      <c r="H131" s="9">
+        <v>4</v>
+      </c>
       <c r="I131" s="55" t="s">
         <v>6</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4183,7 +4195,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4200,7 +4212,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4215,7 +4227,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4230,16 +4242,16 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B136" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C136" s="11">
         <f t="shared" ref="C136:H136" si="16">SUM(C131:C135)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D136" s="11">
         <f t="shared" si="16"/>
@@ -4251,22 +4263,22 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G136" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4281,7 +4293,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4296,7 +4308,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4311,7 +4323,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4326,7 +4338,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4341,7 +4353,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4356,7 +4368,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4391,8 +4403,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4407,7 +4419,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4422,7 +4434,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4449,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4452,7 +4464,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4467,7 +4479,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4482,7 +4494,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4517,8 +4529,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4533,7 +4545,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4550,7 +4562,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4567,7 +4579,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4584,7 +4596,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4599,7 +4611,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4614,7 +4626,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4649,8 +4661,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4665,7 +4677,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4694,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4699,7 +4711,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +4728,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4731,7 +4743,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4746,7 +4758,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4781,8 +4793,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4797,7 +4809,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4814,7 +4826,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +4843,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4848,7 +4860,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4863,7 +4875,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4878,7 +4890,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.68627450980392157</v>
+        <v>0.68852459016393441</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.47058823529411764</v>
+        <v>0.47213114754098362</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.90849673202614378</v>
+        <v>0.90819672131147544</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.565359477124183</v>
+        <v>0.56393442622950818</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90849673202614378</v>
+        <v>0.90819672131147544</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1188,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89215686274509809</v>
+        <v>0.8918032786885246</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4313725490196072</v>
+        <v>4.4327868852459016</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="E125" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G125" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" s="37" t="s">
         <v>7</v>
@@ -4103,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4115,19 +4115,19 @@
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.90819672131147544</v>
+        <v>0.91475409836065569</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4327868852459016</v>
+        <v>4.4393442622950818</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4154,14 +4154,14 @@
         <v>9</v>
       </c>
       <c r="B131" s="12"/>
-      <c r="C131" s="9">
+      <c r="C131" s="41">
         <v>4</v>
       </c>
       <c r="D131" s="10">
         <v>0</v>
       </c>
-      <c r="E131" s="10">
-        <v>0</v>
+      <c r="E131" s="46">
+        <v>2</v>
       </c>
       <c r="F131" s="9">
         <v>4</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="E136" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="16"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.68852459016393441</v>
+        <v>0.67092651757188504</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.47213114754098362</v>
+        <v>0.46006389776357826</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91475409836065569</v>
+        <v>0.91693290734824284</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.56393442622950818</v>
+        <v>0.57507987220447288</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90819672131147544</v>
+        <v>0.90415335463258784</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1188,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.8918032786885246</v>
+        <v>0.89456869009584661</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4393442622950818</v>
+        <v>4.4217252396166131</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4183,12 +4183,24 @@
         <v>10</v>
       </c>
       <c r="B132" s="12"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="56"/>
+      <c r="C132" s="45">
+        <v>0</v>
+      </c>
+      <c r="D132" s="10">
+        <v>0</v>
+      </c>
+      <c r="E132" s="9">
+        <v>8</v>
+      </c>
+      <c r="F132" s="9">
+        <v>8</v>
+      </c>
+      <c r="G132" s="46">
+        <v>6</v>
+      </c>
+      <c r="H132" s="9">
+        <v>8</v>
+      </c>
       <c r="I132" s="36" t="s">
         <v>38</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>15</v>
       </c>
       <c r="B136" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C136" s="11">
         <f t="shared" ref="C136:H136" si="16">SUM(C131:C135)</f>
@@ -4259,19 +4271,19 @@
       </c>
       <c r="E136" s="11">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G136" s="11">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,11 +1030,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46006389776357826</v>
+        <v>0.46964856230031948</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4217252396166131</v>
+        <v>4.4313099041533546</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4186,8 +4186,8 @@
       <c r="C132" s="45">
         <v>0</v>
       </c>
-      <c r="D132" s="10">
-        <v>0</v>
+      <c r="D132" s="46">
+        <v>3</v>
       </c>
       <c r="E132" s="9">
         <v>8</v>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="16"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.67092651757188504</v>
+        <v>0.66246056782334384</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46964856230031948</v>
+        <v>0.4637223974763407</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91693290734824284</v>
+        <v>0.917981072555205</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57507987220447288</v>
+        <v>0.58044164037854895</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90415335463258784</v>
+        <v>0.90536277602523663</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1188,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89456869009584661</v>
+        <v>0.89589905362776023</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4313099041533546</v>
+        <v>4.4258675078864353</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="E125" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G125" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H125" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125" s="37" t="s">
         <v>7</v>
@@ -4103,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128" s="11">
         <f t="shared" ref="C128:H128" si="15">SUM(C123:C127)</f>
@@ -4115,19 +4115,19 @@
       </c>
       <c r="E128" s="11">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F128" s="11">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G128" s="11">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H128" s="11">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="3"/>
@@ -4212,12 +4212,24 @@
         <v>11</v>
       </c>
       <c r="B133" s="12"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="56"/>
+      <c r="C133" s="45">
+        <v>0</v>
+      </c>
+      <c r="D133" s="10">
+        <v>0</v>
+      </c>
+      <c r="E133" s="9">
+        <v>3</v>
+      </c>
+      <c r="F133" s="9">
+        <v>3</v>
+      </c>
+      <c r="G133" s="9">
+        <v>3</v>
+      </c>
+      <c r="H133" s="9">
+        <v>3</v>
+      </c>
       <c r="I133" s="37" t="s">
         <v>7</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>15</v>
       </c>
       <c r="B136" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C136" s="11">
         <f t="shared" ref="C136:H136" si="16">SUM(C131:C135)</f>
@@ -4271,19 +4283,19 @@
       </c>
       <c r="E136" s="11">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G136" s="11">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.66246056782334384</v>
+        <v>0.65830721003134796</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1030,11 +1030,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.4637223974763407</v>
+        <v>0.4670846394984326</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.917981072555205</v>
+        <v>0.91849529780564265</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58044164037854895</v>
+        <v>0.58307210031347967</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90536277602523663</v>
+        <v>0.90595611285266453</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1188,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89589905362776023</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4258675078864353</v>
+        <v>4.4294670846394979</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4241,12 +4241,24 @@
         <v>12</v>
       </c>
       <c r="B134" s="12"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="56"/>
+      <c r="C134" s="45">
+        <v>0</v>
+      </c>
+      <c r="D134" s="9">
+        <v>2</v>
+      </c>
+      <c r="E134" s="9">
+        <v>2</v>
+      </c>
+      <c r="F134" s="9">
+        <v>2</v>
+      </c>
+      <c r="G134" s="9">
+        <v>2</v>
+      </c>
+      <c r="H134" s="9">
+        <v>2</v>
+      </c>
       <c r="I134" s="38"/>
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
@@ -4271,7 +4283,7 @@
         <v>15</v>
       </c>
       <c r="B136" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C136" s="11">
         <f t="shared" ref="C136:H136" si="16">SUM(C131:C135)</f>
@@ -4279,23 +4291,23 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G136" s="11">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,21 +986,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.65830721003134796</v>
+        <v>0.66253869969040247</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,13 +1034,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.4670846394984326</v>
+        <v>0.46130030959752322</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,17 +1070,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91849529780564265</v>
+        <v>0.91331269349845201</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1114,13 +1114,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58307210031347967</v>
+        <v>0.57585139318885448</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1148,17 +1148,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90595611285266453</v>
+        <v>0.90092879256965941</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89655172413793105</v>
+        <v>0.89783281733746134</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4294670846394979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.4117647058823524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4236,7 +4236,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4263,31 +4263,43 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B135" s="11"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="57"/>
+      <c r="C135" s="43">
+        <v>4</v>
+      </c>
+      <c r="D135" s="23">
+        <v>0</v>
+      </c>
+      <c r="E135" s="24">
+        <v>2</v>
+      </c>
+      <c r="F135" s="23">
+        <v>0</v>
+      </c>
+      <c r="G135" s="24">
+        <v>2</v>
+      </c>
+      <c r="H135" s="44">
+        <v>4</v>
+      </c>
       <c r="I135" s="39"/>
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B136" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C136" s="11">
         <f t="shared" ref="C136:H136" si="16">SUM(C131:C135)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D136" s="11">
         <f t="shared" si="16"/>
@@ -4295,7 +4307,7 @@
       </c>
       <c r="E136" s="11">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="16"/>
@@ -4303,18 +4315,18 @@
       </c>
       <c r="G136" s="11">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H136" s="11">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4329,7 +4341,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4344,7 +4356,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4359,7 +4371,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4374,7 +4386,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4389,7 +4401,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4404,7 +4416,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4439,8 +4451,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4455,7 +4467,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4470,7 +4482,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4485,7 +4497,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4500,7 +4512,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4515,7 +4527,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4530,7 +4542,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4565,8 +4577,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4581,7 +4593,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4598,7 +4610,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4615,7 +4627,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4632,7 +4644,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4647,7 +4659,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4662,7 +4674,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4697,8 +4709,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4725,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4730,7 +4742,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4747,7 +4759,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4764,7 +4776,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4779,7 +4791,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4794,7 +4806,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4829,8 +4841,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4845,7 +4857,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4862,7 +4874,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4879,7 +4891,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4896,7 +4908,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4911,7 +4923,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4926,7 +4938,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L128" sqref="L128"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -994,13 +994,13 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.66253869969040247</v>
+        <v>0.65846153846153843</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,13 +1034,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46130030959752322</v>
+        <v>0.45846153846153848</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,17 +1070,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91331269349845201</v>
+        <v>0.91384615384615386</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1110,17 +1110,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57585139318885448</v>
+        <v>0.57846153846153847</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1148,17 +1148,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90092879256965941</v>
+        <v>0.90153846153846151</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1188,17 +1188,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89783281733746134</v>
+        <v>0.89846153846153842</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1233,17 +1233,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4117647058823524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4092307692307688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1440,10 +1440,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1640,8 +1640,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2042,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4236,7 +4236,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4325,8 +4325,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4451,8 +4451,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4577,8 +4577,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4593,24 +4593,36 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="12"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="56"/>
+      <c r="C155" s="45">
+        <v>0</v>
+      </c>
+      <c r="D155" s="10">
+        <v>0</v>
+      </c>
+      <c r="E155" s="9">
+        <v>2</v>
+      </c>
+      <c r="F155" s="9">
+        <v>2</v>
+      </c>
+      <c r="G155" s="9">
+        <v>2</v>
+      </c>
+      <c r="H155" s="9">
+        <v>2</v>
+      </c>
       <c r="I155" s="55" t="s">
         <v>6</v>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4627,7 +4639,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4644,7 +4656,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4659,7 +4671,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4674,12 +4686,12 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B160" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160" s="11">
         <f t="shared" ref="C160:H160" si="19">SUM(C155:C159)</f>
@@ -4691,26 +4703,26 @@
       </c>
       <c r="E160" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G160" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H160" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4725,7 +4737,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4742,7 +4754,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4759,7 +4771,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4776,7 +4788,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4791,7 +4803,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4806,7 +4818,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4841,8 +4853,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4857,7 +4869,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4886,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4891,7 +4903,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4908,7 +4920,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4923,7 +4935,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4938,7 +4950,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -920,23 +920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,21 +986,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.65846153846153843</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1030,17 +1030,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45846153846153848</v>
+        <v>0.45797101449275363</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1070,38 +1070,38 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91384615384615386</v>
+        <v>0.91884057971014488</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>7</v>
@@ -1110,17 +1110,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57846153846153847</v>
+        <v>0.58550724637681162</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1148,17 +1148,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90153846153846151</v>
+        <v>0.90724637681159426</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1188,62 +1188,62 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89846153846153842</v>
+        <v>0.90434782608695652</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" ref="C8:H8" si="0">SUM(C3:C7)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4092307692307688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.4550724637681158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,28 +1318,28 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="41">
+        <v>6</v>
+      </c>
+      <c r="D13" s="46">
         <v>5</v>
       </c>
-      <c r="D13" s="46">
-        <v>4</v>
-      </c>
       <c r="E13" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="37" t="s">
         <v>7</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1405,45 +1405,45 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" ref="C16:H16" si="1">SUM(C11:C15)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,28 +1518,28 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="41">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6</v>
+      </c>
+      <c r="F21" s="46">
         <v>5</v>
       </c>
-      <c r="D21" s="9">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9">
-        <v>5</v>
-      </c>
-      <c r="F21" s="46">
-        <v>4</v>
-      </c>
       <c r="G21" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="37" t="s">
         <v>7</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1605,43 +1605,43 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" ref="C24:H24" si="2">SUM(C19:C23)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,13 +1685,13 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="46">
         <v>3</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" s="49">
         <v>0</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="2" t="s">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1805,43 +1805,43 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" ref="C32:H32" si="3">SUM(C27:C31)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" s="9">
         <v>4</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1918,28 +1918,28 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" s="10">
         <v>0</v>
       </c>
       <c r="G37" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="37" t="s">
         <v>7</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2007,43 +2007,43 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="11">
         <f t="shared" ref="C40:H40" si="4">SUM(C35:C39)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" s="11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2120,28 +2120,28 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I45" s="37" t="s">
         <v>7</v>
@@ -2149,7 +2149,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="9">
         <v>2</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2207,43 +2207,43 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="11">
         <f t="shared" ref="C48:H48" si="5">SUM(C43:C47)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="11">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,28 +2320,28 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
       </c>
       <c r="E53" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" s="37" t="s">
         <v>7</v>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="22">
         <v>4</v>
@@ -2405,43 +2405,43 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="11">
         <f t="shared" ref="C56:H56" si="6">SUM(C51:C55)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2518,28 +2518,28 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H61" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="37" t="s">
         <v>7</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2592,8 +2592,8 @@
       <c r="E63" s="22">
         <v>4</v>
       </c>
-      <c r="F63" s="23">
-        <v>0</v>
+      <c r="F63" s="24">
+        <v>1</v>
       </c>
       <c r="G63" s="22">
         <v>4</v>
@@ -2607,42 +2607,42 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B64" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="11">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H64" s="11">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2653,7 +2653,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2842,28 +2842,28 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G77" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H77" s="42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" s="37" t="s">
         <v>7</v>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2927,43 +2927,43 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B80" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80" s="11">
         <f t="shared" ref="C80:H80" si="9">SUM(C75:C79)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="11">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H80" s="11">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3164,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +3356,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3548,8 +3548,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3941,8 +3941,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4236,7 +4236,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4325,8 +4325,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4451,8 +4451,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4577,8 +4577,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4622,41 +4622,65 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="12"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="56"/>
+      <c r="C156" s="41">
+        <v>6</v>
+      </c>
+      <c r="D156" s="10">
+        <v>0</v>
+      </c>
+      <c r="E156" s="9">
+        <v>6</v>
+      </c>
+      <c r="F156" s="10">
+        <v>0</v>
+      </c>
+      <c r="G156" s="9">
+        <v>6</v>
+      </c>
+      <c r="H156" s="42">
+        <v>6</v>
+      </c>
       <c r="I156" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="56"/>
+      <c r="C157" s="41">
+        <v>5</v>
+      </c>
+      <c r="D157" s="10">
+        <v>0</v>
+      </c>
+      <c r="E157" s="9">
+        <v>5</v>
+      </c>
+      <c r="F157" s="9">
+        <v>5</v>
+      </c>
+      <c r="G157" s="9">
+        <v>5</v>
+      </c>
+      <c r="H157" s="42">
+        <v>5</v>
+      </c>
       <c r="I157" s="37" t="s">
         <v>7</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4671,7 +4695,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4686,16 +4710,16 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B160" s="11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C160" s="11">
         <f t="shared" ref="C160:H160" si="19">SUM(C155:C159)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D160" s="11">
         <f t="shared" si="19"/>
@@ -4703,26 +4727,26 @@
       </c>
       <c r="E160" s="11">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F160" s="11">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G160" s="11">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H160" s="11">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4737,7 +4761,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4754,7 +4778,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4771,7 +4795,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4788,7 +4812,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4803,7 +4827,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4818,7 +4842,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4853,8 +4877,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4869,7 +4893,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4886,7 +4910,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4903,7 +4927,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4920,7 +4944,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -4935,7 +4959,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -4950,7 +4974,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -921,7 +921,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,11 +1030,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45797101449275363</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4550724637681158</v>
+        <v>4.4637681159420284</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4659,8 +4659,8 @@
       <c r="C157" s="41">
         <v>5</v>
       </c>
-      <c r="D157" s="10">
-        <v>0</v>
+      <c r="D157" s="46">
+        <v>3</v>
       </c>
       <c r="E157" s="9">
         <v>5</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="D160" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E160" s="11">
         <f t="shared" si="19"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -921,7 +921,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+      <selection activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,11 +990,11 @@
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.6811594202898551</v>
+        <v>0.69275362318840583</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91884057971014488</v>
+        <v>0.93043478260869561</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58550724637681162</v>
+        <v>0.59710144927536235</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90724637681159426</v>
+        <v>0.91884057971014488</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1188,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90434782608695652</v>
+        <v>0.90144927536231889</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4637681159420284</v>
+        <v>4.5072463768115947</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4671,8 +4671,8 @@
       <c r="G157" s="9">
         <v>5</v>
       </c>
-      <c r="H157" s="42">
-        <v>5</v>
+      <c r="H157" s="49">
+        <v>0</v>
       </c>
       <c r="I157" s="37" t="s">
         <v>7</v>
@@ -4685,12 +4685,24 @@
         <v>12</v>
       </c>
       <c r="B158" s="12"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="56"/>
+      <c r="C158" s="41">
+        <v>4</v>
+      </c>
+      <c r="D158" s="10">
+        <v>0</v>
+      </c>
+      <c r="E158" s="9">
+        <v>4</v>
+      </c>
+      <c r="F158" s="9">
+        <v>4</v>
+      </c>
+      <c r="G158" s="9">
+        <v>4</v>
+      </c>
+      <c r="H158" s="42">
+        <v>4</v>
+      </c>
       <c r="I158" s="38"/>
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
@@ -4719,7 +4731,7 @@
       </c>
       <c r="C160" s="11">
         <f t="shared" ref="C160:H160" si="19">SUM(C155:C159)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D160" s="11">
         <f t="shared" si="19"/>
@@ -4727,19 +4739,19 @@
       </c>
       <c r="E160" s="11">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F160" s="11">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G160" s="11">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H160" s="11">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L163" sqref="L163"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,15 +986,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.69275362318840583</v>
+        <v>0.69971671388101986</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46666666666666667</v>
+        <v>0.45609065155807366</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1070,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.93043478260869561</v>
+        <v>0.92067988668555245</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1110,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59710144927536235</v>
+        <v>0.59490084985835689</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91884057971014488</v>
+        <v>0.90934844192634556</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90144927536231889</v>
+        <v>0.88101983002832862</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5072463768115947</v>
+        <v>4.4617563739376775</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2383,8 +2383,8 @@
         <v>13</v>
       </c>
       <c r="B55" s="11"/>
-      <c r="C55" s="54">
-        <v>0</v>
+      <c r="C55" s="43">
+        <v>4</v>
       </c>
       <c r="D55" s="24">
         <v>3</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="C56" s="11">
         <f t="shared" ref="C56:H56" si="6">SUM(C51:C55)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="6"/>
@@ -4712,12 +4712,24 @@
         <v>13</v>
       </c>
       <c r="B159" s="11"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="57"/>
+      <c r="C159" s="43">
+        <v>4</v>
+      </c>
+      <c r="D159" s="23">
+        <v>0</v>
+      </c>
+      <c r="E159" s="22">
+        <v>4</v>
+      </c>
+      <c r="F159" s="22">
+        <v>4</v>
+      </c>
+      <c r="G159" s="22">
+        <v>4</v>
+      </c>
+      <c r="H159" s="50">
+        <v>0</v>
+      </c>
       <c r="I159" s="39"/>
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
@@ -4727,11 +4739,11 @@
         <v>15</v>
       </c>
       <c r="B160" s="11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C160" s="11">
         <f t="shared" ref="C160:H160" si="19">SUM(C155:C159)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D160" s="11">
         <f t="shared" si="19"/>
@@ -4739,15 +4751,15 @@
       </c>
       <c r="E160" s="11">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F160" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G160" s="11">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H160" s="11">
         <f t="shared" si="19"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -485,7 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -633,6 +633,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,11 +1191,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.88101983002832862</v>
+        <v>0.88668555240793201</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1240,7 +1243,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4617563739376775</v>
+        <v>4.4674220963172804</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4727,8 +4730,8 @@
       <c r="G159" s="22">
         <v>4</v>
       </c>
-      <c r="H159" s="50">
-        <v>0</v>
+      <c r="H159" s="59">
+        <v>2</v>
       </c>
       <c r="I159" s="39"/>
       <c r="J159" s="3"/>
@@ -4763,7 +4766,7 @@
       </c>
       <c r="H160" s="11">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,15 +989,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.69971671388101986</v>
+        <v>0.71148459383753504</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45609065155807366</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1073,11 +1073,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92067988668555245</v>
+        <v>0.91596638655462181</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59490084985835689</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1151,11 +1151,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.90934844192634556</v>
+        <v>0.91036414565826329</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1191,11 +1191,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.88668555240793201</v>
+        <v>0.88795518207282909</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4674220963172804</v>
+        <v>4.4649859943977592</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D101" s="9">
         <v>3</v>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="C104" s="11">
         <f t="shared" ref="C104:H104" si="12">SUM(C99:C103)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D104" s="11">
         <f t="shared" si="12"/>
@@ -4793,12 +4793,24 @@
         <v>9</v>
       </c>
       <c r="B163" s="12"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="56"/>
+      <c r="C163" s="41">
+        <v>4</v>
+      </c>
+      <c r="D163" s="10">
+        <v>0</v>
+      </c>
+      <c r="E163" s="46">
+        <v>2</v>
+      </c>
+      <c r="F163" s="10">
+        <v>0</v>
+      </c>
+      <c r="G163" s="9">
+        <v>4</v>
+      </c>
+      <c r="H163" s="42">
+        <v>4</v>
+      </c>
       <c r="I163" s="55" t="s">
         <v>6</v>
       </c>
@@ -4874,11 +4886,11 @@
         <v>15</v>
       </c>
       <c r="B168" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C168" s="11">
         <f t="shared" ref="C168:H168" si="20">SUM(C163:C167)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D168" s="11">
         <f t="shared" si="20"/>
@@ -4886,7 +4898,7 @@
       </c>
       <c r="E168" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F168" s="11">
         <f t="shared" si="20"/>
@@ -4894,11 +4906,11 @@
       </c>
       <c r="G168" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H168" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,15 +989,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.71148459383753504</v>
+        <v>0.71780821917808224</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1033,11 +1033,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45098039215686275</v>
+        <v>0.45479452054794522</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1073,11 +1073,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91596638655462181</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58823529411764708</v>
+        <v>0.57534246575342463</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1151,11 +1151,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91036414565826329</v>
+        <v>0.9123287671232877</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1191,11 +1191,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.88795518207282909</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4649859943977592</v>
+        <v>4.4684931506849317</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4822,12 +4822,24 @@
         <v>10</v>
       </c>
       <c r="B164" s="12"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="56"/>
+      <c r="C164" s="41">
+        <v>8</v>
+      </c>
+      <c r="D164" s="46">
+        <v>5</v>
+      </c>
+      <c r="E164" s="9">
+        <v>8</v>
+      </c>
+      <c r="F164" s="10">
+        <v>0</v>
+      </c>
+      <c r="G164" s="9">
+        <v>8</v>
+      </c>
+      <c r="H164" s="42">
+        <v>8</v>
+      </c>
       <c r="I164" s="36" t="s">
         <v>38</v>
       </c>
@@ -4886,19 +4898,19 @@
         <v>15</v>
       </c>
       <c r="B168" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C168" s="11">
         <f t="shared" ref="C168:H168" si="20">SUM(C163:C167)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D168" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E168" s="11">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F168" s="11">
         <f t="shared" si="20"/>
@@ -4906,11 +4918,11 @@
       </c>
       <c r="G168" s="11">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H168" s="11">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="77">
   <si>
     <t>Fahrettin</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Totaal % Groep</t>
+  </si>
+  <si>
+    <t>Week 4:</t>
   </si>
 </sst>
 </file>
@@ -921,25 +924,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -974,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -988,22 +991,22 @@
       <c r="I2" s="47"/>
       <c r="J2" s="1"/>
       <c r="K2" s="12">
-        <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>365</v>
+        <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
+        <v>370</v>
       </c>
       <c r="L2" s="7">
-        <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>262</v>
+        <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
+        <v>267</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.71780821917808224</v>
+        <v>0.72162162162162158</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1032,18 +1035,18 @@
       <c r="J3" s="2"/>
       <c r="K3" s="12"/>
       <c r="L3" s="7">
-        <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
+        <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
         <v>166</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45479452054794522</v>
+        <v>0.44864864864864867</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1072,18 +1075,18 @@
       <c r="J4" s="2"/>
       <c r="K4" s="12"/>
       <c r="L4" s="7">
-        <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>335</v>
+        <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
+        <v>339</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.9178082191780822</v>
+        <v>0.91621621621621618</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1112,18 +1115,18 @@
       <c r="J5" s="2"/>
       <c r="K5" s="12"/>
       <c r="L5" s="7">
-        <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>210</v>
+        <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
+        <v>215</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57534246575342463</v>
+        <v>0.58108108108108103</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1150,18 +1153,18 @@
       <c r="J6" s="2"/>
       <c r="K6" s="12"/>
       <c r="L6" s="7">
-        <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>333</v>
+        <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
+        <v>338</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.9123287671232877</v>
+        <v>0.91351351351351351</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1190,18 +1193,18 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="7">
-        <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>325</v>
+        <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
+        <v>330</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.8904109589041096</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1236,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4684931506849317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4729729729729728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1443,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1643,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1843,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1890,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2010,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2045,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2123,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2152,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2210,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2245,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2323,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2354,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2408,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2443,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2459,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2521,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2552,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2581,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2645,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2656,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2671,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2701,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2731,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2781,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2797,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2817,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2845,7 +2848,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2879,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2903,7 +2906,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2933,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2965,8 +2968,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2981,7 +2984,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3015,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3043,7 +3046,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3074,7 +3077,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3103,7 +3106,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3132,7 +3135,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3167,8 +3170,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3183,7 +3186,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3212,7 +3215,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +3244,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3270,7 +3273,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3297,7 +3300,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3359,8 +3362,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3375,7 +3378,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3404,7 +3407,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3462,7 +3465,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3492,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3516,7 +3519,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3551,8 +3554,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3596,7 +3599,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +3628,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3681,7 +3684,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3708,7 +3711,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3743,8 +3746,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3793,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3821,7 +3824,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3855,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3881,7 +3884,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3910,7 +3913,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3944,8 +3947,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3960,7 +3963,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3989,7 +3992,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4021,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4050,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4077,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4101,7 +4104,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4136,8 +4139,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4152,7 +4155,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4181,7 +4184,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4239,7 +4242,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4266,7 +4269,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4293,7 +4296,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4328,8 +4331,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4344,7 +4347,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4362,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4392,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4404,7 +4407,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4419,7 +4422,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4454,8 +4457,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4485,7 +4488,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4500,7 +4503,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4518,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4530,7 +4533,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4545,7 +4548,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4580,8 +4583,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4596,7 +4599,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4625,7 +4628,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4654,7 +4657,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4683,7 +4686,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4710,7 +4713,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4737,7 +4740,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4772,8 +4775,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4788,7 +4791,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4817,7 +4820,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4846,24 +4849,36 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="12"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="56"/>
+      <c r="C165" s="41">
+        <v>5</v>
+      </c>
+      <c r="D165" s="10">
+        <v>0</v>
+      </c>
+      <c r="E165" s="46">
+        <v>4</v>
+      </c>
+      <c r="F165" s="9">
+        <v>5</v>
+      </c>
+      <c r="G165" s="9">
+        <v>5</v>
+      </c>
+      <c r="H165" s="9">
+        <v>5</v>
+      </c>
       <c r="I165" s="37" t="s">
         <v>7</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4878,7 +4893,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4893,16 +4908,16 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B168" s="11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C168" s="11">
         <f t="shared" ref="C168:H168" si="20">SUM(C163:C167)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D168" s="11">
         <f t="shared" si="20"/>
@@ -4910,26 +4925,26 @@
       </c>
       <c r="E168" s="11">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F168" s="11">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G168" s="11">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H168" s="11">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4944,7 +4959,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4961,7 +4976,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4993,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -4995,7 +5010,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5010,7 +5025,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5025,7 +5040,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
@@ -5059,6 +5074,131 @@
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
+    </row>
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="47"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="56"/>
+      <c r="I179" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="56"/>
+      <c r="I180" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="12"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="56"/>
+      <c r="I181" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="12"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="56"/>
+      <c r="I182" s="38"/>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="39"/>
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="11">
+        <v>0</v>
+      </c>
+      <c r="C184" s="11">
+        <f t="shared" ref="C184:H184" si="22">SUM(C179:C183)</f>
+        <v>0</v>
+      </c>
+      <c r="D184" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E184" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F184" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H184" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I184" s="11"/>
+      <c r="J184" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,11 +1036,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.44864864864864867</v>
+        <v>0.45405405405405408</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4729729729729728</v>
+        <v>4.4783783783783786</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4857,8 +4857,8 @@
       <c r="C165" s="41">
         <v>5</v>
       </c>
-      <c r="D165" s="10">
-        <v>0</v>
+      <c r="D165" s="46">
+        <v>2</v>
       </c>
       <c r="E165" s="46">
         <v>4</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D168" s="11">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E168" s="11">
         <f t="shared" si="20"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,11 +996,11 @@
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72162162162162158</v>
+        <v>0.72702702702702704</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1036,11 +1036,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45405405405405408</v>
+        <v>0.45675675675675675</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1076,11 +1076,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91621621621621618</v>
+        <v>0.92162162162162165</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1116,11 +1116,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58108108108108103</v>
+        <v>0.58648648648648649</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1154,11 +1154,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91351351351351351</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1194,11 +1194,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89189189189189189</v>
+        <v>0.89729729729729735</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.4783783783783786</v>
+        <v>4.5081081081081082</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4883,12 +4883,24 @@
         <v>12</v>
       </c>
       <c r="B166" s="12"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="56"/>
+      <c r="C166" s="41">
+        <v>2</v>
+      </c>
+      <c r="D166" s="46">
+        <v>1</v>
+      </c>
+      <c r="E166" s="9">
+        <v>2</v>
+      </c>
+      <c r="F166" s="9">
+        <v>2</v>
+      </c>
+      <c r="G166" s="9">
+        <v>2</v>
+      </c>
+      <c r="H166" s="9">
+        <v>2</v>
+      </c>
       <c r="I166" s="38"/>
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
@@ -4917,27 +4929,27 @@
       </c>
       <c r="C168" s="11">
         <f t="shared" ref="C168:H168" si="20">SUM(C163:C167)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D168" s="11">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E168" s="11">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F168" s="11">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G168" s="11">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H168" s="11">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,21 +992,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72702702702702704</v>
+        <v>0.72894736842105268</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1036,17 +1036,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45675675675675675</v>
+        <v>0.46578947368421053</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92162162162162165</v>
+        <v>0.91842105263157892</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1116,17 +1116,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58648648648648649</v>
+        <v>0.59210526315789469</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,17 +1154,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91891891891891897</v>
+        <v>0.91578947368421049</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,17 +1194,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89729729729729735</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5081081081081082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.5157894736842099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,24 +2800,36 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="56"/>
+      <c r="C75" s="41">
+        <v>4</v>
+      </c>
+      <c r="D75" s="9">
+        <v>4</v>
+      </c>
+      <c r="E75" s="9">
+        <v>4</v>
+      </c>
+      <c r="F75" s="9">
+        <v>4</v>
+      </c>
+      <c r="G75" s="9">
+        <v>4</v>
+      </c>
+      <c r="H75" s="42">
+        <v>4</v>
+      </c>
       <c r="I75" s="55" t="s">
         <v>6</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2879,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2933,43 +2945,43 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B80" s="11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C80" s="11">
         <f t="shared" ref="C80:H80" si="9">SUM(C75:C79)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D80" s="11">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H80" s="11">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2984,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3015,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3077,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3106,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3135,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3170,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3186,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3300,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3327,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3362,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3378,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3407,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3436,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3465,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3492,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3519,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3554,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3570,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3599,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3628,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3657,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3711,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3746,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3762,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3793,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3824,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3855,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3884,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3913,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3947,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3963,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -3992,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4021,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4050,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4104,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4139,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4184,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4213,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4242,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4269,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4296,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4331,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4347,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4362,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4377,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4392,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4407,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4422,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4457,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4473,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4488,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4503,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4533,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4548,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4583,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4599,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4628,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4657,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4686,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4713,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4775,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4791,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4820,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4849,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4878,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4905,58 +4917,70 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B167" s="11"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="57"/>
+      <c r="C167" s="43">
+        <v>4</v>
+      </c>
+      <c r="D167" s="22">
+        <v>4</v>
+      </c>
+      <c r="E167" s="22">
+        <v>4</v>
+      </c>
+      <c r="F167" s="22">
+        <v>4</v>
+      </c>
+      <c r="G167" s="22">
+        <v>4</v>
+      </c>
+      <c r="H167" s="44">
+        <v>4</v>
+      </c>
       <c r="I167" s="39"/>
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B168" s="11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C168" s="11">
         <f t="shared" ref="C168:H168" si="20">SUM(C163:C167)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D168" s="11">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E168" s="11">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F168" s="11">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G168" s="11">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H168" s="11">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4971,7 +4995,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -4988,7 +5012,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -5005,7 +5029,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -5022,7 +5046,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5037,7 +5061,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5052,7 +5076,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
@@ -5087,8 +5111,8 @@
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5102,7 +5126,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5118,7 +5142,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -5134,7 +5158,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5150,7 +5174,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5164,7 +5188,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5178,7 +5202,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,21 +992,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.72894736842105268</v>
+        <v>0.73177083333333337</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1040,13 +1040,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46578947368421053</v>
+        <v>0.4609375</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91842105263157892</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1116,17 +1116,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59210526315789469</v>
+        <v>0.59635416666666663</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,17 +1154,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91578947368421049</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,17 +1194,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89473684210526316</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5157894736842099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.5182291666666661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3182,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3566,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4995,24 +4995,36 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B171" s="12"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="56"/>
+      <c r="C171" s="41">
+        <v>4</v>
+      </c>
+      <c r="D171" s="10">
+        <v>0</v>
+      </c>
+      <c r="E171" s="46">
+        <v>3</v>
+      </c>
+      <c r="F171" s="9">
+        <v>4</v>
+      </c>
+      <c r="G171" s="9">
+        <v>4</v>
+      </c>
+      <c r="H171" s="9">
+        <v>4</v>
+      </c>
       <c r="I171" s="55" t="s">
         <v>6</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -5029,7 +5041,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -5046,7 +5058,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5061,7 +5073,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5076,16 +5088,16 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B176" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C176" s="11">
         <f t="shared" ref="C176:H176" si="21">SUM(C171:C175)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D176" s="11">
         <f t="shared" si="21"/>
@@ -5093,26 +5105,26 @@
       </c>
       <c r="E176" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F176" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G176" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H176" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5126,7 +5138,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5142,7 +5154,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5170,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5174,7 +5186,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5188,7 +5200,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5202,7 +5214,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,21 +992,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.73177083333333337</v>
+        <v>0.73724489795918369</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1036,17 +1036,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.4609375</v>
+        <v>0.46173469387755101</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91666666666666663</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1120,13 +1120,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.59635416666666663</v>
+        <v>0.58418367346938771</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,17 +1154,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91666666666666663</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,17 +1194,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89583333333333337</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5182291666666661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.5178571428571423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3182,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3566,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -5024,24 +5024,36 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B172" s="12"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="56"/>
+      <c r="C172" s="41">
+        <v>8</v>
+      </c>
+      <c r="D172" s="46">
+        <v>4</v>
+      </c>
+      <c r="E172" s="9">
+        <v>8</v>
+      </c>
+      <c r="F172" s="10">
+        <v>0</v>
+      </c>
+      <c r="G172" s="9">
+        <v>8</v>
+      </c>
+      <c r="H172" s="42">
+        <v>8</v>
+      </c>
       <c r="I172" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -5058,7 +5070,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5085,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5088,24 +5100,24 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B176" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C176" s="11">
         <f t="shared" ref="C176:H176" si="21">SUM(C171:C175)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D176" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E176" s="11">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F176" s="11">
         <f t="shared" si="21"/>
@@ -5113,18 +5125,18 @@
       </c>
       <c r="G176" s="11">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H176" s="11">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5138,7 +5150,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5154,7 +5166,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -5170,7 +5182,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5186,7 +5198,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5200,7 +5212,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5214,7 +5226,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,21 +992,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.73724489795918369</v>
+        <v>0.74055415617128462</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1040,13 +1040,13 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46173469387755101</v>
+        <v>0.45591939546599497</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91836734693877553</v>
+        <v>0.91939546599496225</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1116,17 +1116,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58418367346938771</v>
+        <v>0.58942065491183881</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,17 +1154,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91836734693877553</v>
+        <v>0.91939546599496225</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,17 +1194,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89795918367346939</v>
+        <v>0.89924433249370272</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5178571428571423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.523929471032746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3182,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3566,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -5053,24 +5053,36 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B173" s="12"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="56"/>
+      <c r="C173" s="41">
+        <v>5</v>
+      </c>
+      <c r="D173" s="10">
+        <v>0</v>
+      </c>
+      <c r="E173" s="9">
+        <v>5</v>
+      </c>
+      <c r="F173" s="9">
+        <v>5</v>
+      </c>
+      <c r="G173" s="9">
+        <v>5</v>
+      </c>
+      <c r="H173" s="9">
+        <v>5</v>
+      </c>
       <c r="I173" s="37" t="s">
         <v>7</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5085,7 +5097,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5100,16 +5112,16 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B176" s="11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C176" s="11">
         <f t="shared" ref="C176:H176" si="21">SUM(C171:C175)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D176" s="11">
         <f t="shared" si="21"/>
@@ -5117,26 +5129,26 @@
       </c>
       <c r="E176" s="11">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F176" s="11">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G176" s="11">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H176" s="11">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5150,7 +5162,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5166,7 +5178,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -5182,7 +5194,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5198,7 +5210,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5212,7 +5224,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5226,7 +5238,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,21 +992,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.74055415617128462</v>
+        <v>0.74185463659147866</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1036,17 +1036,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45591939546599497</v>
+        <v>0.45864661654135336</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91939546599496225</v>
+        <v>0.91979949874686717</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1116,17 +1116,17 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58942065491183881</v>
+        <v>0.5914786967418546</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,17 +1154,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91939546599496225</v>
+        <v>0.91979949874686717</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,17 +1194,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89924433249370272</v>
+        <v>0.89974937343358397</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.523929471032746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.5313283208020056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3182,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3566,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -5082,22 +5082,34 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B174" s="12"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="56"/>
+      <c r="C174" s="41">
+        <v>2</v>
+      </c>
+      <c r="D174" s="9">
+        <v>2</v>
+      </c>
+      <c r="E174" s="9">
+        <v>2</v>
+      </c>
+      <c r="F174" s="9">
+        <v>2</v>
+      </c>
+      <c r="G174" s="9">
+        <v>2</v>
+      </c>
+      <c r="H174" s="42">
+        <v>2</v>
+      </c>
       <c r="I174" s="38"/>
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5112,43 +5124,43 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B176" s="11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C176" s="11">
         <f t="shared" ref="C176:H176" si="21">SUM(C171:C175)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D176" s="11">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E176" s="11">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F176" s="11">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G176" s="11">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H176" s="11">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5162,7 +5174,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5178,7 +5190,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -5194,7 +5206,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5222,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5224,7 +5236,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +5250,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -927,7 +927,7 @@
   <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L171" sqref="L171"/>
+      <selection activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,15 +992,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.74185463659147866</v>
+        <v>0.74441687344913154</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45864661654135336</v>
+        <v>0.45409429280397023</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1076,11 +1076,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.91979949874686717</v>
+        <v>0.92059553349875933</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.5914786967418546</v>
+        <v>0.5856079404466501</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1154,11 +1154,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91979949874686717</v>
+        <v>0.91811414392059554</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1194,11 +1194,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.89974937343358397</v>
+        <v>0.90074441687344908</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5313283208020056</v>
+        <v>4.5235732009925558</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5114,12 +5114,24 @@
         <v>13</v>
       </c>
       <c r="B175" s="11"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="57"/>
+      <c r="C175" s="43">
+        <v>4</v>
+      </c>
+      <c r="D175" s="23">
+        <v>0</v>
+      </c>
+      <c r="E175" s="22">
+        <v>4</v>
+      </c>
+      <c r="F175" s="23">
+        <v>0</v>
+      </c>
+      <c r="G175" s="24">
+        <v>3</v>
+      </c>
+      <c r="H175" s="44">
+        <v>4</v>
+      </c>
       <c r="I175" s="39"/>
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
@@ -5129,11 +5141,11 @@
         <v>15</v>
       </c>
       <c r="B176" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C176" s="11">
         <f t="shared" ref="C176:H176" si="21">SUM(C171:C175)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D176" s="11">
         <f t="shared" si="21"/>
@@ -5141,7 +5153,7 @@
       </c>
       <c r="E176" s="11">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F176" s="11">
         <f t="shared" si="21"/>
@@ -5149,11 +5161,11 @@
       </c>
       <c r="G176" s="11">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H176" s="11">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jaar 2\Game-Lab-1.1\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +992,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.74441687344913154</v>
+        <v>0.73710073710073709</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45409429280397023</v>
+        <v>0.44963144963144963</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1076,11 +1076,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92059553349875933</v>
+        <v>0.92137592137592139</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1116,11 +1116,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.5856079404466501</v>
+        <v>0.58968058968058967</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1154,11 +1154,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91811414392059554</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1194,11 +1194,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90074441687344908</v>
+        <v>0.90171990171990168</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5235732009925558</v>
+        <v>4.5184275184275178</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5191,12 +5191,24 @@
         <v>9</v>
       </c>
       <c r="B179" s="12"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="56"/>
+      <c r="C179" s="45">
+        <v>0</v>
+      </c>
+      <c r="D179" s="10">
+        <v>0</v>
+      </c>
+      <c r="E179" s="9">
+        <v>4</v>
+      </c>
+      <c r="F179" s="9">
+        <v>4</v>
+      </c>
+      <c r="G179" s="9">
+        <v>4</v>
+      </c>
+      <c r="H179" s="42">
+        <v>4</v>
+      </c>
       <c r="I179" s="55" t="s">
         <v>6</v>
       </c>
@@ -5267,7 +5279,7 @@
         <v>15</v>
       </c>
       <c r="B184" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C184" s="11">
         <f t="shared" ref="C184:H184" si="22">SUM(C179:C183)</f>
@@ -5279,19 +5291,19 @@
       </c>
       <c r="E184" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F184" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G184" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H184" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jaar 2\Game-Lab-1.1\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171 D179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.109375" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1036,17 +1036,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.44963144963144963</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5184275184275178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.5233415233415233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3182,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3566,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
@@ -5171,8 +5171,8 @@
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5194,8 +5194,8 @@
       <c r="C179" s="45">
         <v>0</v>
       </c>
-      <c r="D179" s="10">
-        <v>0</v>
+      <c r="D179" s="46">
+        <v>2</v>
       </c>
       <c r="E179" s="9">
         <v>4</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5260,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="D184" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E184" s="11">
         <f t="shared" si="22"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\GitHub\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jaar 2\Game-Lab-1.1\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -926,23 +926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171 D179"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.109375" customWidth="1"/>
-    <col min="11" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" customWidth="1"/>
+    <col min="11" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -992,21 +992,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.73710073710073709</v>
+        <v>0.74216867469879522</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1036,17 +1036,17 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.45454545454545453</v>
+        <v>0.46265060240963857</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92137592137592139</v>
+        <v>0.92048192771084336</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1120,13 +1120,13 @@
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.58968058968058967</v>
+        <v>0.57831325301204817</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1154,17 +1154,17 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91891891891891897</v>
+        <v>0.91807228915662653</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1194,17 +1194,17 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90171990171990168</v>
+        <v>0.90361445783132532</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1239,17 +1239,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="27"/>
       <c r="L9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5233415233415233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.5253012048192778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="J14" s="29"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="J16" s="26"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1846,8 +1846,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2248,8 +2248,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="12"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>15</v>
       </c>
@@ -2446,8 +2446,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="12"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="12"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="18"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="J66" s="31"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="J67" s="33"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="J68" s="33"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="J69" s="33"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="J70" s="33"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="J71" s="35"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2784,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>15</v>
       </c>
@@ -2980,8 +2980,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -3182,8 +3182,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>15</v>
       </c>
@@ -3566,8 +3566,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>15</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>33</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>15</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="J138" s="31"/>
       <c r="K138" s="12"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="J139" s="33"/>
       <c r="K139" s="12"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J140" s="33"/>
       <c r="K140" s="12"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="J141" s="33"/>
       <c r="K141" s="12"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="J142" s="33"/>
       <c r="K142" s="12"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="J143" s="35"/>
       <c r="K143" s="12"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>15</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="12"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="J146" s="31"/>
       <c r="K146" s="12"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="J147" s="33"/>
       <c r="K147" s="12"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="J148" s="33"/>
       <c r="K148" s="12"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="J149" s="33"/>
       <c r="K149" s="12"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="J150" s="33"/>
       <c r="K150" s="12"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="J151" s="35"/>
       <c r="K151" s="12"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>15</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="J152" s="3"/>
       <c r="K152" s="12"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>35</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="12"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="12"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>10</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="12"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="12"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="12"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="12"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>15</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="J160" s="3"/>
       <c r="K160" s="12"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="12"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>10</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="12"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="12"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>15</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="J168" s="3"/>
       <c r="K168" s="12"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>37</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="12"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="12"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="12"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="12"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="12"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="12"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>15</v>
       </c>
@@ -5171,8 +5171,8 @@
       <c r="J176" s="3"/>
       <c r="K176" s="12"/>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>76</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="I178" s="47"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -5214,23 +5214,35 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="56"/>
+      <c r="C180" s="41">
+        <v>8</v>
+      </c>
+      <c r="D180" s="46">
+        <v>7</v>
+      </c>
+      <c r="E180" s="46">
+        <v>7</v>
+      </c>
+      <c r="F180" s="10">
+        <v>0</v>
+      </c>
+      <c r="G180" s="46">
+        <v>7</v>
+      </c>
+      <c r="H180" s="42">
+        <v>8</v>
+      </c>
       <c r="I180" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>11</v>
       </c>
@@ -5246,7 +5258,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5272,7 @@
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -5274,24 +5286,24 @@
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B184" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C184" s="11">
         <f t="shared" ref="C184:H184" si="22">SUM(C179:C183)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D184" s="11">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E184" s="11">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F184" s="11">
         <f t="shared" si="22"/>
@@ -5299,11 +5311,11 @@
       </c>
       <c r="G184" s="11">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H184" s="11">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="3"/>

--- a/Algemeen/Uren Registratie Game-Lab 1.xlsx
+++ b/Algemeen/Uren Registratie Game-Lab 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jaar 2\Game-Lab-1.1\Game-Lab-1.1\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2e Schooljaar\1. Game-Lab 1\8. GitHub\Game-Lab-1.1\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -488,7 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -627,12 +627,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
@@ -926,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,15 +986,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="12">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176+B184</f>
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L2" s="7">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176+C184</f>
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="M2" s="21">
         <f>L2/K2</f>
-        <v>0.74216867469879522</v>
+        <v>0.74882629107981225</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>0</v>
@@ -1036,11 +1030,11 @@
       <c r="K3" s="12"/>
       <c r="L3" s="7">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176+D184</f>
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M3" s="21">
         <f>L3/K2</f>
-        <v>0.46265060240963857</v>
+        <v>0.47183098591549294</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>1</v>
@@ -1076,11 +1070,11 @@
       <c r="K4" s="12"/>
       <c r="L4" s="7">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176+E184</f>
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M4" s="21">
         <f>L4/K2</f>
-        <v>0.92048192771084336</v>
+        <v>0.92253521126760563</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>2</v>
@@ -1116,11 +1110,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="7">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176+F184</f>
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M5" s="21">
         <f>L5/K2</f>
-        <v>0.57831325301204817</v>
+        <v>0.58920187793427226</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>3</v>
@@ -1154,11 +1148,11 @@
       <c r="K6" s="12"/>
       <c r="L6" s="7">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176+G184</f>
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M6" s="21">
         <f>L6/K2</f>
-        <v>0.91807228915662653</v>
+        <v>0.92018779342723001</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>4</v>
@@ -1194,11 +1188,11 @@
       <c r="K7" s="12"/>
       <c r="L7" s="7">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176+H184</f>
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M7" s="21">
         <f>L7/K2</f>
-        <v>0.90361445783132532</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>5</v>
@@ -1246,7 +1240,7 @@
       </c>
       <c r="M9" s="21">
         <f>SUM(M2:M8)</f>
-        <v>4.5253012048192778</v>
+        <v>4.55868544600939</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3631,7 +3625,7 @@
       <c r="G108" s="9">
         <v>8</v>
       </c>
-      <c r="H108" s="58">
+      <c r="H108" s="56">
         <v>7</v>
       </c>
       <c r="I108" s="36" t="s">
@@ -4745,7 +4739,7 @@
       <c r="G159" s="22">
         <v>4</v>
       </c>
-      <c r="H159" s="59">
+      <c r="H159" s="57">
         <v>2</v>
       </c>
       <c r="I159" s="39"/>
@@ -5247,12 +5241,24 @@
         <v>11</v>
       </c>
       <c r="B181" s="12"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="56"/>
+      <c r="C181" s="41">
+        <v>5</v>
+      </c>
+      <c r="D181" s="46">
+        <v>3</v>
+      </c>
+      <c r="E181" s="9">
+        <v>5</v>
+      </c>
+      <c r="F181" s="9">
+        <v>5</v>
+      </c>
+      <c r="G181" s="9">
+        <v>5</v>
+      </c>
+      <c r="H181" s="42">
+        <v>5</v>
+      </c>
       <c r="I181" s="37" t="s">
         <v>7</v>
       </c>
@@ -5263,12 +5269,24 @@
         <v>12</v>
       </c>
       <c r="B182" s="12"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="56"/>
+      <c r="C182" s="41">
+        <v>2</v>
+      </c>
+      <c r="D182" s="9">
+        <v>2</v>
+      </c>
+      <c r="E182" s="9">
+        <v>2</v>
+      </c>
+      <c r="F182" s="9">
+        <v>2</v>
+      </c>
+      <c r="G182" s="9">
+        <v>2</v>
+      </c>
+      <c r="H182" s="42">
+        <v>2</v>
+      </c>
       <c r="I182" s="38"/>
       <c r="J182" s="2"/>
     </row>
@@ -5277,12 +5295,24 @@
         <v>13</v>
       </c>
       <c r="B183" s="11"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="57"/>
+      <c r="C183" s="43">
+        <v>4</v>
+      </c>
+      <c r="D183" s="22">
+        <v>4</v>
+      </c>
+      <c r="E183" s="22">
+        <v>4</v>
+      </c>
+      <c r="F183" s="22">
+        <v>4</v>
+      </c>
+      <c r="G183" s="22">
+        <v>4</v>
+      </c>
+      <c r="H183" s="44">
+        <v>4</v>
+      </c>
       <c r="I183" s="39"/>
       <c r="J183" s="3"/>
     </row>
@@ -5291,31 +5321,31 @@
         <v>15</v>
       </c>
       <c r="B184" s="11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C184" s="11">
         <f t="shared" ref="C184:H184" si="22">SUM(C179:C183)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D184" s="11">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E184" s="11">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F184" s="11">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G184" s="11">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H184" s="11">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I184" s="11"/>
       <c r="J184" s="3"/>
